--- a/Proveedores.xlsx
+++ b/Proveedores.xlsx
@@ -5,8 +5,9 @@
   <sheets>
     <sheet state="visible" name="Argentina" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Chile" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Uruguay" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Otros" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Colombia" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="España" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Mexico" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="472">
   <si>
     <t>nombre</t>
   </si>
@@ -413,13 +414,1043 @@
   </si>
   <si>
     <t>Vajilla, vasos, copas, jarras, platos, compoteras, tazas, pocillos, mates, ensaladeras, frascos, potes, botellas, envases de vidrio, frascos para alimentos, frascos para conservas, frascos para mermelada, frascos para miel, potes para yogur, botellas para salsa, botellas para aceite, botellas para vinagre, botellas para bebidas, botellas para agua, botellas para gaseosa, botellas para jugo, botellas para vino, botellas para espumante, botellas para cerveza, botellas para licor, botellas para aperitivos, envases para cosmética, potes para cremas, envases para perfumería, frascos para perfumes, envases para farmacia, frascos medicinales, ampollas, viales, frascos gotero.</t>
+  </si>
+  <si>
+    <t>Almacen Cervecero</t>
+  </si>
+  <si>
+    <t>https://www.almacencervecero.com/</t>
+  </si>
+  <si>
+    <t>+56 2 2918 9940 / +56 9 7823 1322</t>
+  </si>
+  <si>
+    <t>ventas@almacencervecero.cl</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Estación Central</t>
+  </si>
+  <si>
+    <t>Obispo Javier Vasquez #3927</t>
+  </si>
+  <si>
+    <t>kit de elaboración de cerveza, kit todo grano, malta, malta base premium, malta base económica, maltas caramelizadas, maltas tostadas, maltas especiales, extractos de malta, cereales, lúpulos, dryhop líquidos, extracto de lúpulo, levaduras, bacterias, levaduras líquidas, levaduras en sachet, nutrientes para levadura, adjuntos, sales para agua, aditivos, enzimas, libros, insumos para hidromiel, insumos para sidra, insumos para kombucha, insumos para destilados, insumos para gin, botánicos, maderas, ahumadores, equipos schop, accesorios schop, barriles, kegs, enfriadores, fitting schop, conectores, limpieza para schop, torres de cerveza, kit schopero, cilindros de co2, kit de carbonatación, repuestos de refrigeración, accesorios de limpieza, detergentes, productos de aseo, guantes, elementos de manipulación, accesorios de fermentación, bidones de fermentación, fermentadores speidel, fermentadores fermzilla, fermentadores infinity, fermentadores cónicos, unitank, equipos profesionales, equipos de molienda, molinos, equipos de maceración, equipos de cocción, kits de equipos, equipos brewzilla, quemadores, equipos de enfriado, fitting brewhouse, equipos de carbonatación, envases, botellas, latas, growlers, etiquetado, llenadoras, tapadoras, tapas corona, tapas para botellas, pruebas de laboratorio, suministros de laboratorio, instrumentos de laboratorio, termómetros, densímetros, refractómetros, medidores de ph, balanzas, equipos de filtrado, bombas, bombas de trasvase, cristalería, vasos de cerveza, copas, productos usados, productos reacondicionados.</t>
+  </si>
+  <si>
+    <t>Almacen Cervecero (Sucursal)</t>
+  </si>
+  <si>
+    <t>(No especificado)</t>
+  </si>
+  <si>
+    <t>valdivia@almacencervecero.cl</t>
+  </si>
+  <si>
+    <t>Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>Lago Yelcho 0510</t>
+  </si>
+  <si>
+    <t>Casa Trinidad</t>
+  </si>
+  <si>
+    <t>https://insumoscerveceros.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 9410 6741</t>
+  </si>
+  <si>
+    <t>ventas@casatrinidad.cl</t>
+  </si>
+  <si>
+    <t>Cerrillos</t>
+  </si>
+  <si>
+    <t>Pedro Aguirre Cerda 7763</t>
+  </si>
+  <si>
+    <t>accesorios schop, aditivos, coayudantes, balanzas, grameras, barriles, barriles keg, barriles cornelius, ikeg, mini barriles, bolsas dry hop, bolsas de macerado, spider hops, bombas, bombas de recirculado, bombas de trasvasije, botellas, growlers, clarificantes, conectores, conectores john guest, cristalería, dispensadores de schop, equipos de frío, embotellado, enfriadores, enfriador de placas, serpentín de inmersión, fermentación, bidones, fermentadores, filtros de agua, filtros de mosto, fitting, fondos falsos, ollas de cocción, hierbas, especias, kits de recetas, levaduras, levadura ale, levadura lager, levadura líquida, levadura seca, lúpulos, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos neozelandeses, lúpulos ingleses, maltas, cereales, malta pilsen, malta pale ale, maltas caramelo, maltas tostadas, maltas especiales, mangueras sanitarias, medición, control, termómetros, densímetros, probetas, refractómetros, molinos, paletas, cucharones, embudos, quemadores, cocinillas, químicos, detergentes, sanitizantes, tapadoras, encorchadoras, tapas corona, tapones de silicona, torres para schop, torres cobra, torres en u, vasos desechables, vasos de vidrio, pintas, copas, vasos precipitados, matraz erlenmeyer, botellas de 330cc, botellas de 500cc, botellas de 1 litro, growler de 1 litro, growler de 1.9 litros.</t>
+  </si>
+  <si>
+    <t>The BeerLab</t>
+  </si>
+  <si>
+    <t>https://www.thebeerlab.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 3019 7969 / +56 9 7452 7249</t>
+  </si>
+  <si>
+    <t>ventas.beerlab@gmail.com</t>
+  </si>
+  <si>
+    <t>Providencia</t>
+  </si>
+  <si>
+    <t>Rafael Cañas 103, Oficina D</t>
+  </si>
+  <si>
+    <t>malta, malta pilsen, malta pale ale, malta de trigo, maltas caramelo, malta chocolate, malta tostada, malta ahumada, malta acidificada, malta melanoidina, malta biscuit, avena, cebada, lúpulo, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos alemanes, lúpulos ingleses, lúpulos neozelandeses, levadura, levadura seca, levadura ale, levadura lager, levadura kveik, levadura líquida, nutrientes para levadura, dextrosa, lactosa, maltodextrina, azúcar de maíz, clarificantes, irish moss, whirlfloc, gelatina, sales para agua, sulfato de calcio, cloruro de calcio, ácido láctico, ácido fosfórico, aditivos, enzimas, kits de insumos, kits de cerveza, mini plantas de cerveza, plantas cerveceras, ollas, ollas de acero inoxidable, termocalefactores, kit whirlpool, lavador de granos, fermentadores, fermentadores de plástico, fermentadores de acero inoxidable, fermentadores cónicos, fermentadores isobáricos, airlocks, tapones, canillas para fermentador, chaquetas de neopreno para fermentador, termómetros, densímetros, probetas, refractómetros, medidores de ph, balanzas digitales, molinos para grano, enfriadores, enfriador de placas, enfriador de inmersión, serpentín, bombas, bombas de recirculado, bombas magnéticas, filtros, filtros de agua, cartuchos de filtro, mangueras, mangueras de silicona, mangueras atóxicas, conectores, conectores rápidos, codos, válvulas de bola, espigas, niples, abrazaderas, barriles, barriles cornelius, barriles tipo A, barriles tipo G, conectores para barril, conectores ball lock, conectores pin lock, o-rings, tubos de inmersión, tapas para barril, canillas para chopera, canillas de doble acción, canillas con control de flujo, torres para canillas, bandejas de goteo, reguladores de CO2, cilindros de CO2, carbonatador, llenadoras de botellas, llenadora contrapresión, tapadoras, tapadora de martillo, tapadora de banco, tapas corona, botellas de vidrio, botellas pet, escurridores de botellas, lavador de botellas, cepillos de limpieza, detergentes alcalinos, detergentes ácidos, sanitizantes, ácido peracético, alcohol 70/30, yodóforo, cristalería, vasos de cerveza, copas, growlers, growlers de vidrio, growlers de acero inoxidable, manómetros</t>
+  </si>
+  <si>
+    <t>Enter Insumos Cerveceros</t>
+  </si>
+  <si>
+    <t>https://enterinsumos.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 3874 8730 / +56 4 4304 6781</t>
+  </si>
+  <si>
+    <t>ventas@enterinsumos.cl</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t>Av. Gabriela Oriente 2290</t>
+  </si>
+  <si>
+    <t>malta, malta pilsen, malta pale ale, malta de trigo, malta de centeno, maltas caramelo, malta chocolate, malta tostada, malta ahumada, malta acidificada, malta melanoidina, malta biscuit, avena, cebada, arroz, lúpulo, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos alemanes, lúpulos ingleses, lúpulos neozelandeses, lúpulos australianos, levadura, levadura seca, levadura ale, levadura lager, levadura kveik, levadura líquida, bacterias, nutrientes para levadura, dextrosa, lactosa, maltodextrina, azúcar de maíz, miel, clarificantes, irish moss, whirlfloc, gelatina, sales para agua, sulfato de calcio, cloruro de calcio, ácido láctico, ácido fosfórico, ácido cítrico, aditivos, enzimas, hierbas, especias, cáscara de naranja, anís, canela, cardamomo, coriandro, jengibre, kits de insumos, kits de cerveza, equipos, ollas, ollas de acero inoxidable, fondos falsos, mecheros, quemadores, cocinillas, enfriadores, enfriador de placas, enfriador de inmersión, serpentín, bombas, bombas de recirculado, bombas magnéticas, mangueras, mangueras de silicona, mangueras atóxicas, conectores, conectores rápidos, codos, válvulas de bola, espigas, niples, abrazaderas, filtros, filtros de agua, cartuchos de filtro, bolsas de macerado, bolsas de dry hop, paletas, espumaderas, fermentadores, fermentadores de plástico, fermentadores de acero inoxidable, fermentadores cónicos, airlocks, tapones, canillas para fermentador, termómetros, densímetros, probetas, refractómetros, medidores de ph, balanzas digitales, molinos para grano, molinos de rodillos, embotellado, llenadoras de botellas, llenadora contrapresión, tapadoras, tapadora de martillo, tapadora de banco, tapas corona, botellas de vidrio, botellas pet, escurridores de botellas, lavador de botellas, sanitizador de botellas, cepillos de limpieza, barriles, barriles cornelius, barriles tipo G, conectores para barril, conectores ball lock, conectores pin lock, o-rings para barril, tubos de inmersión, tapas para barril, canillas para chopera, canillas de doble acción, canillas con control de flujo, torres para canillas, bandejas de goteo, reguladores de CO2, cilindros de CO2, carbonatador, manómetros, detergentes alcalinos, detergentes ácidos, sanitizantes, ácido peracético, alcohol 70/30, yodóforo, cristalería, vasos de cerveza, copas, growlers.</t>
+  </si>
+  <si>
+    <t>La Tienda del Cervecero</t>
+  </si>
+  <si>
+    <t>https://www.latiendadelcervecero.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 7539 8988</t>
+  </si>
+  <si>
+    <t>info@latiendadelcervecero.cl</t>
+  </si>
+  <si>
+    <t>Avenida El Peral 07462</t>
+  </si>
+  <si>
+    <t>malta, malta nacional, malta alemana, malta pilsen, malta pale ale, malta de trigo, malta de centeno, maltas caramelo, malta chocolate, malta tostada, malta ahumada, malta acidificada, malta melanoidina, malta biscuit, avena, cebada, arroz, lúpulo, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos alemanes, lúpulos ingleses, lúpulos neozelandeses, lúpulos australianos, aceite esencial de lúpulo, levadura, levadura seca, levadura ale, levadura lager, levadura kveik, levadura líquida, nutrientes para levadura, dextrosa, lactosa, azúcar de maíz, miel, clarificantes, irish moss, whirlfloc, gelatina, sales para agua, sulfato de calcio, cloruro de calcio, ácido láctico, ácido fosfórico, ácido cítrico, aditivos, enzimas, hierbas, especias, cáscara de naranja, anís, canela, cardamomo, coriandro, jengibre, saborizantes, kits de insumos, kits de recetas, equipos, ollas, ollas de acero inoxidable, fondos falsos, bazookas, mecheros, quemadores, cocinillas, enfriadores, enfriador de placas, enfriador de inmersión, serpentín, bombas, bombas de recirculado, bombas magnéticas, mangueras, mangueras de silicona, mangueras atóxicas, conectores, conectores rápidos, codos, válvulas de bola, espigas, niples, abrazaderas, filtros, filtros de agua, cartuchos de filtro, bolsas de macerado, bolsas de dry hop, paletas mezcladoras, espumaderas, fermentadores, fermentadores de plástico, fermentadores de acero inoxidable, fermentadores cónicos, fermentadores infinity, atriles para fermentador, airlocks, tapones, canillas para fermentador, termómetros, densímetros, probetas, refractómetros, medidores de ph, balanzas digitales, molinos para grano, molinos de rodillos, embotellado, llenadoras de botellas, llenadora contrapresión, tapadoras, tapadora de martillo, tapadora de banco, tapas corona, botellas de vidrio, botellas pet, escurridores de botellas, lavador de botellas, sanitizador de botellas, cepillos de limpieza, barriles, barriles cornelius, barriles tipo G, conectores para barril, conectores ball lock, conectores pin lock, o-rings para barril, tubos de inmersión, tapas para barril, línea schop, dispensadores, canillas para chopera, canillas de doble acción, canillas con control de flujo, torres para canillas, bandejas de goteo, reguladores de CO2, cilindros de CO2, carbonatador, manómetros, detergentes alcalinos, detergentes ácidos, sanitizantes, ácido peracético, alcohol 70/30, yodóforo, cristalería, vasos de cerveza, copas, growlers, libros, literatura cervecera, regalos, gift cards</t>
+  </si>
+  <si>
+    <t>Brewstore</t>
+  </si>
+  <si>
+    <t>https://brewstore.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 6301 9586</t>
+  </si>
+  <si>
+    <t>brewstore.insumos@gmail.com</t>
+  </si>
+  <si>
+    <t>Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>(Tienda Online / Reparto)</t>
+  </si>
+  <si>
+    <t>Beersen</t>
+  </si>
+  <si>
+    <t>https://www.beersen.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 3746 9941</t>
+  </si>
+  <si>
+    <t>hola@beersen.cl</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>(Tienda Online)</t>
+  </si>
+  <si>
+    <t>malta, malta pilsen, malta pale ale, malta de trigo, maltas caramelo, malta chocolate, malta tostada, malta ahumada, malta acidificada, malta melanoidina, malta biscuit, avena, cebada, lúpulo, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos alemanes, lúpulos ingleses, lúpulos neozelandeses, levadura, levadura seca, levadura ale, levadura lager, levadura kveik, levadura líquida, nutrientes para levadura, dextrosa, lactosa, maltodextrina, azúcar de maíz, miel, clarificantes, irish moss, whirlfloc, gelatina, sales para agua, sulfato de calcio, cloruro de calcio, ácido láctico, ácido fosfórico, ácido cítrico, aditivos, enzimas, hierbas, especias, cáscara de naranja, anís, canela, cardamomo, coriandro, jengibre, kits de insumos, kits de recetas, equipos, ollas, ollas de acero inoxidable, fondos falsos, mecheros, quemadores, cocinillas, enfriadores, enfriador de placas, enfriador de inmersión, serpentín, bombas, bombas de recirculado, bombas magnéticas, mangueras, mangueras de silicona, mangueras atóxicas, conectores, conectores rápidos, codos, válvulas de bola, espigas, niples, abrazaderas, filtros, filtros de agua, cartuchos de filtro, bolsas de macerado, bolsas de dry hop, paletas, espumaderas, fermentadores, fermentadores de plástico, fermentadores de acero inoxidable, fermentadores cónicos, airlocks, tapones, canillas para fermentador, termómetros, densímetros, probetas, refractómetros, medidores de ph, balanzas digitales, molinos para grano, molinos de rodillos, embotellado, llenadoras de botellas, llenadora contrapresión, tapadoras, tapadora de martillo, tapadora de banco, tapas corona, botellas de vidrio, botellas pet, escurridores de botellas, lavador de botellas, sanitizador de botellas, cepillos de limpieza, barriles, barriles cornelius, barriles tipo G, conectores para barril, conectores ball lock, conectores pin lock, o-rings para barril, tubos de inmersión, tapas para barril, canillas para chopera, canillas de doble acción, canillas con control de flujo, torres para canillas, bandejas de goteo, reguladores de CO2, cilindros de CO2, carbonatador, manómetros, detergentes alcalinos, detergentes ácidos, sanitizantes, ácido peracético, alcohol 70/30, yodóforo, cristalería, vasos de cerveza, copas, growlers.</t>
+  </si>
+  <si>
+    <t>https://www.minicerveceria.cl/</t>
+  </si>
+  <si>
+    <t>+56 2 2633 4998 / +56 2 2638 0940</t>
+  </si>
+  <si>
+    <t>ventas@minicerveceria.cl</t>
+  </si>
+  <si>
+    <t>Eleuterio Ramirez 747</t>
+  </si>
+  <si>
+    <t>malta, malta en grano, malta pilsen, malta pale ale, malta de trigo, maltas caramelo, malta chocolate, malta tostada, malta ahumada, malta acidificada, malta melanoidina, malta biscuit, avena, cebada, arroz, extracto de malta, lúpulo, lúpulo en pellets, lúpulos americanos, lúpulos europeos, lúpulos alemanes, lúpulos ingleses, lúpulos neozelandeses, lúpulos australianos, levadura, levadura seca, levadura ale, levadura lager, levadura kveik, levadura líquida, nutrientes para levadura, dextrosa, lactosa, maltodextrina, azúcar de maíz, miel, clarificantes, irish moss, whirlfloc, gelatina, sales para agua, sulfato de calcio, cloruro de calcio, ácido láctico, ácido fosfórico, ácido cítrico, aditivos, enzimas, hierbas, especias, cáscara de naranja, anís, canela, cardamomo, coriandro, jengibre, kits de insumos, kits de recetas, equipos, ollas, ollas de acero inoxidable, fondos falsos, mecheros, quemadores, cocinillas, enfriadores, enfriador de placas, enfriador de inmersión, serpentín, bombas, bombas de recirculado, bombas magnéticas, mangueras, mangueras de silicona, mangueras atóxicas, conectores, conectores rápidos, codos, válvulas de bola, espigas, niples, abrazaderas, filtros, filtros de agua, cartuchos de filtro, bolsas de macerado, bolsas de dry hop, paletas, espumaderas, fermentadores, fermentadores de plástico, fermentadores de acero inoxidable, fermentadores cónicos, airlocks, tapones, canillas para fermentador, termómetros, densímetros, probetas, refractómetros, medidores de ph, balanzas digitales, molinos para grano, molinos de rodillos, embotellado, llenadoras de botellas, llenadora contrapresión, tapadoras, tapadora de martillo, tapadora de banco, tapas corona, botellas de vidrio, botellas pet, escurridores de botellas, lavador de botellas, sanitizador de botellas, cepillos de limpieza, barriles, barriles cornelius, barriles tipo G, conectores para barril, conectores ball lock, conectores pin lock, o-rings para barril, tubos de inmersión, tapas para barril, canillas para chopera, canillas de doble acción, canillas con control de flujo, torres para canillas, bandejas de goteo, reguladores de CO2, cilindros de CO2, carbonatador, manómetros, detergentes alcalinos, detergentes ácidos, sanitizantes, ácido peracético, alcohol 70/30, yodóforo, cristalería, vasos de cerveza, copas, growlers.</t>
+  </si>
+  <si>
+    <t>Insumos Cerveceros Prost</t>
+  </si>
+  <si>
+    <t>https://www.prost.cl/</t>
+  </si>
+  <si>
+    <t>+56 2 3206 4696</t>
+  </si>
+  <si>
+    <t>contacto@prost.cl</t>
+  </si>
+  <si>
+    <t>Macul</t>
+  </si>
+  <si>
+    <t>Premio Nobel 2794, Oficina 1</t>
+  </si>
+  <si>
+    <t>Bucarest Craft</t>
+  </si>
+  <si>
+    <t>https://bucarestcraft.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 6848 1712</t>
+  </si>
+  <si>
+    <t>barbara@bucarestcraft.cl</t>
+  </si>
+  <si>
+    <t>Beerstore Valdivia</t>
+  </si>
+  <si>
+    <t>http://www.beerstorevaldivia.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 9671 0136 / +56 9 5466 4661</t>
+  </si>
+  <si>
+    <t>beerstorevaldivia@gmail.com</t>
+  </si>
+  <si>
+    <t>Los Robles 302, Isla Teja</t>
+  </si>
+  <si>
+    <t>Haz tu Cerveza</t>
+  </si>
+  <si>
+    <t>https://www.haztucerveza.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 8421 2132</t>
+  </si>
+  <si>
+    <t>contacto@haztucerveza.cl</t>
+  </si>
+  <si>
+    <t>Cerveza, Insumos para Cerveza, Equipos para Cerveza, Malta, Malta Caramelo, Malta Chocolate, Malta Crystal, Malta Extra Pale, Malta Munich, Malta Pale Ale, Malta Pilsen, Malta Trigo, Malta Vienna, Lúpulo, Lúpulo Cascade, Lúpulo Chinock, Lúpulo Fuggle, Lúpulo Hersbruker, Lúpulo Kent Goldigns, Lúpulo Northern Brewer, Lúpulo Saaz, Lúpulo Willamette, Levadura, Levadura para Hidromiel, Levadura Ale, Levadura Lager, Kits para hacer Cerveza, Beerbox, Smartkit, Beerkit, Hidromiel, Kits para Hidromiel, Fermentadores, Airlocks, O-rings, Árbol de Secado de Botellas, Densímetros, Termómetros, Probetas, Molinos para Malta, Ollas de Acero Inoxidable, Enfriadores de Placas, Intercambiadores de Calor, Paletas Revolvedoras, Bombas para Cerveza, Llenadoras de Botellas, Tapadoras, Tapas Corona, Botellas de Vidrio, Barriles, Kegs, Conectores para Barriles, Mangueras, Escobillas para Limpieza, Químicos de Limpieza, Sanitizantes, Libros de Cervecería.</t>
+  </si>
+  <si>
+    <t>BEERWALL</t>
+  </si>
+  <si>
+    <t>https://www.beerwall.cl/</t>
+  </si>
+  <si>
+    <t>ventas@beerwall.cl</t>
+  </si>
+  <si>
+    <t>Malta, lúpulo, envases, barriles, levadura, adjuntos, clarificantes, sales, nutrientes, saborizantes, licores, ácidos, limpieza, desinfección, mangueras, conectores, válvulas, enfriadores, fermentadores, accesorios de fermentación, llenadoras de botellas, tapadoras, tapas, botellas, carbonatación, filtros, airlocks, tapones, termómetros, densímetros, probetas, refractómetros, medidores de pH, balanzas, ollas, mecheros, quemadores, molinos, paletas, espumaderas, bombas, filtros, kegs, conectores para kegs, canillas, torres, bandejas de goteo, reguladores de CO2, cilindros de CO2, kits de equipos, kits de recetas, libros, regalos, ropa, cristalería, dispensadores de cerveza, enfriadores de paso, barriles de acero inoxidable, mini kegs, sistemas de dispensado, growlers, botellas de vidrio, botellas PET, tapas corona, corchos, jaulas para corchos, arandelas, sanitizantes, detergentes, cepillos, rejillas de secado, termómetros digitales, termómetros de varilla, densímetros de tres escalas, probetas de plástico, probetas de vidrio, refractómetros con ATC, medidores de pH de bolsillo, soluciones de calibración de pH, balanzas de precisión, ollas de acero inoxidable, ollas de aluminio, quemadores de alta presión, quemadores de baja presión, molinos de rodillos, molinos de discos, paletas de acero inoxidable, paletas de plástico, espumaderas de acero inoxidable, bombas magnéticas, bombas centrífugas, filtros de cartucho, filtros de placas, barriles tipo Cornelius, barriles tipo S, barriles tipo G, conectores Ball Lock, conectores Pin Lock, canillas tipo a, canillas tipo g, canillas tipo s, torres de acero inoxidable, torres de cerámica, bandejas de goteo de acero inoxidable, bandejas de goteo de plástico, reguladores de CO2 de una vía, reguladores de CO2 de dos vías, cilindros de CO2 de aluminio, cilindros de CO2 de acero, kits de inicio, kits todo grano, kits de extracto de malta, libros de elaboración de cerveza, libros de estilos de cerveza, camisetas, gorras, vasos de pinta, copas de degustación.</t>
+  </si>
+  <si>
+    <t>Maltexco (Productor Malta)</t>
+  </si>
+  <si>
+    <t>https://www.maltexco.com/</t>
+  </si>
+  <si>
+    <t>+56 2 2520 6800</t>
+  </si>
+  <si>
+    <t>info@maltexco.com</t>
+  </si>
+  <si>
+    <t>Talagante</t>
+  </si>
+  <si>
+    <t>Veintiuno de Mayo 201</t>
+  </si>
+  <si>
+    <t>Malta, Malta base, Malta especial, Malta caramelo, Malta tostada, Malta Extra Pale, Perla Negra, Extracto de malta, Extracto de avena, Extractos cerveceros, Harina, Harina especial, Harina de caramelo, Harina tostada, Harina de malta, Harina de cebada, Harina de malta y cebada tostada, Cebada, Cebada perlada, Hojuelas de cebada, Cebada industrial, Extensores, BarleyChoc, BarleyChoc Classic, BarleyChoc Dark, BarleyChoc Light, BarleyChoc Mokka.</t>
+  </si>
+  <si>
+    <t>Lúpulos Hueimen (Productor)</t>
+  </si>
+  <si>
+    <t>https://www.lupuloshueimen.cl/</t>
+  </si>
+  <si>
+    <t>lupuloshueimen@gmail.com</t>
+  </si>
+  <si>
+    <t>Región de la Araucanía</t>
+  </si>
+  <si>
+    <t>Cunco</t>
+  </si>
+  <si>
+    <t>Fundo Hueimén</t>
+  </si>
+  <si>
+    <t>lúpulo pelletizado, lúpulos en pellet, pellets de lúpulo, paquetes de 1 kg, Bitter Gold, Cascade, Fuggle, Yakima Gold, Eroica, Ranco, Valdivia, La Unión, Blend 12 variedades</t>
+  </si>
+  <si>
+    <t>Antilhue (Equipos)</t>
+  </si>
+  <si>
+    <t>http://antilhuecerveceria.cl/</t>
+  </si>
+  <si>
+    <t>+56 9 9444 9211</t>
+  </si>
+  <si>
+    <t>info@antilhuecerveceria.cl</t>
+  </si>
+  <si>
+    <t>Av. Condell 1167</t>
+  </si>
+  <si>
+    <t>Malta, Lúpulo, Levadura, Azúcares, Clarificantes, Extractos, Kits de Insumos, Malta Base, Malta Especial, Lúpulos Importados, Lúpulos Nacionales, Levaduras Secas, Levaduras Líquidas, Adjuntos, Sales para Corrección del Agua, Nutrientes para Levadura, Chips de Roble, Miel, Frutas, Especias, Hierbas, Botánicos, Enzimas, Agentes de Limpieza, Sanitizantes, Detergentes, Ácidos, Equipos de Cocción, Ollas, Maceradores, Hervidores, Fermentadores, Fermentadores de Plástico, Fermentadores de Acero Inoxidable, Airlocks, Tapones, Equipos de Enfriamiento, Enfriadores de Placas, Enfriadores de Inmersión, Serpentinas, Equipos de Embotellado, Llenadoras de Botellas, Tapadoras de Botellas, Botellas de Vidrio, Botellas PET, Tapas Corona, Tapas a Rosca, Equipos de Embarrilado, Barriles, Conectores para Barriles, Canillas, Choperas, Torres para Choperas, Bandejas de Goteo, Equipos de Medición, Termómetros, Densímetros, Probetas, pHmetros, Refractómetros, Equipos de Molienda, Molinos de Malta, Equipos de Filtrado, Filtros, Bombas de Trasvase, Mangueras, Conectores, Accesorios Cerveceros, Paletas Cerveceras, Cepillos para Botellas, Racks de Secado, Indumentaria, Gorras, Remeras, Buzos, Cervezas Artesanales, Cervezas Nacionales, Cervezas Importadas, Hidromiel, Gin, Vermut.</t>
+  </si>
+  <si>
+    <t>Chile Inox (Equipos)</t>
+  </si>
+  <si>
+    <t>https://www.chileinox.cl/</t>
+  </si>
+  <si>
+    <t>+56 2 2449 1770 / +56 2 2533 3014</t>
+  </si>
+  <si>
+    <t>contacto@chileinox.cl</t>
+  </si>
+  <si>
+    <t>Lo Espejo</t>
+  </si>
+  <si>
+    <t>Av. Lo Espejo 01565, Bodega 401</t>
+  </si>
+  <si>
+    <t>Estanques, Reactores, Fermentadores, Salteadoras, Mezcladores, Mezclador tipo pantalon, Mezclador biconico, Mezclador horizontal, Mezclador pedestal, Mezclador de cinta, Silos, Estructuras metalicas, Spool, Transfer, Plataformas, Equipos de desarrollo, Tornillos sin fin, Bandejas, Skid, Cintas transportadoras, Productos a la medida, Plantas, Piping acero inox, Piping acero al carbono, Piping duplex, Piping titanio.</t>
+  </si>
+  <si>
+    <t>Distrines (Sede Principal)</t>
+  </si>
+  <si>
+    <t>https://distrines.com/</t>
+  </si>
+  <si>
+    <t>601 450 5120 / 313 449 7933</t>
+  </si>
+  <si>
+    <t>ventas@distrines.com</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bogotá D.C.</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Calle 20C # 42 - 43</t>
+  </si>
+  <si>
+    <t>Insumos para cerveza, malta, lúpulo, levadura, nutrientes para levadura, clarificantes, conservantes, adjuntos, saborizantes, vainilla, antiespumante, kit de cerveza, kit de cerveza Indian Pale Ale, kit de cerveza Irish Red Ale, equipos para elaboración de cerveza, equipos de maceración, equipos de hervido, equipos de fermentación, fermentadores, equipos de envasado, dispensación de cerveza, desinfectantes para equipos de cervecería, destiladores, implementos para cervecería, insumos para vino, metabisulfito de potasio, malta caramelo, malta munich, malta de trigo, malta de trigo oscuro, malta crystal, lúpulo East Kent Golding, levadura SafAle F-2, FermCap.</t>
+  </si>
+  <si>
+    <t>Distrines (Sucursal Cali)</t>
+  </si>
+  <si>
+    <t>602 345 1258 / 310 608 3672</t>
+  </si>
+  <si>
+    <t>ventascali@distrines.com</t>
+  </si>
+  <si>
+    <t>Valle del Cauca</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Calle 44 # 6A - 93</t>
+  </si>
+  <si>
+    <t>Prost Bier Medellin</t>
+  </si>
+  <si>
+    <t>https://www.prostbiermedellin.com/</t>
+  </si>
+  <si>
+    <t>(4) 506 21 20 / 300 257 9309</t>
+  </si>
+  <si>
+    <t>No especificado</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>insumos para cerveza, equipos para cerveza, malta, lúpulo, levadura, Levadura Safale K-97, Levadura Saftbrew BE 256 Abbaye, Levadura Safale T 58, levadura F2, Levadura Saflager S 23 Lager, Levadura Saflager W34/70 Lager, Levadura Safbrew WB-06 Wheat, Levadura Saftbrew S 33, Levadura Safcider, equipos para cervecería casera, equipos para nano cervecería, equipos para micro cervecería.</t>
+  </si>
+  <si>
+    <t>The Craft Drinks Lab</t>
+  </si>
+  <si>
+    <t>https://thecraftdrinkslab.com/</t>
+  </si>
+  <si>
+    <t>318 461 3008</t>
+  </si>
+  <si>
+    <t>info@thecraftdrinkslab.com</t>
+  </si>
+  <si>
+    <t>Cll. 34 No 50-08, Barrio Perpetuo Socorro</t>
+  </si>
+  <si>
+    <t>malta, malta pilsen, lúpulo, lúpulo amarillo, levadura, levadura para cerveza, levadura ale, levadura lager, levadura ipa, levadura kveik, levadura para vino, levadura para hidromiel, levadura para sidra, levadura nutricional, nutrientes para levaduras, enzimas, clarificantes, whirlfloc, pastillas carbonatadoras, azúcares fermentables, dextrosa, maltodextrina, sales para tratamiento de agua, sulfato de calcio, cloruro de calcio, ácido fosfórico, ácido láctico, botánicos, enebro, coriandro, cardamomo, anís estrellado, manzanilla, hibisco, piel de cítricos, chips de roble, airlocks, trampas de aire, tapadoras, tapas corona, botellas, tapones de goma, fermentadores, ollas de macerado, enfriadores de mosto, molinos de malta, densímetros, probetas, termómetros, mangueras, conectores, barriles, kegs, canillas, conectores para barriles, llenadores de botellas, sanitizantes, detergentes alcalinos, detergentes ácidos, kits de insumos para cerveza, adjuntos, avena, trigo, cebada, centeno, lúpulos en pellets, lúpulos en flor, extracto de malta, miel, azúcar de maíz, gygypsum, irish moss.</t>
+  </si>
+  <si>
+    <t>The Craft Drinks Lab (Oficinas)</t>
+  </si>
+  <si>
+    <t>Cundinamarca</t>
+  </si>
+  <si>
+    <t>Cota</t>
+  </si>
+  <si>
+    <t>Km 2.5 Vía Bogotá Siberia, Conjunto Portos Sabana 80</t>
+  </si>
+  <si>
+    <t>Grupo Morato SAS</t>
+  </si>
+  <si>
+    <t>https://grupomorato.com.co/</t>
+  </si>
+  <si>
+    <t>(601) 467 28 88 / 320 432 32 16 / 311 548 48 20</t>
+  </si>
+  <si>
+    <t>ventas1@grupomorato.com.co</t>
+  </si>
+  <si>
+    <t>aceite de higado de bacalao, abedul hoja, acacia de la india, aceite de oliva, aceite de ricino, aceite sabor a ajo, aceite sabor a cerdo, aceite sabor a cervecero, aceite sabor a chorizo, aceite sabor a hamburguesa, aceite sabor a jamon, aceite sabor a jengibre, aceite sabor a mortadela, aceite sabor a nuez moscada, aceite sabor a paprika, aceite sabor a pavo, aceite sabor a pescado, aceite sabor a pimienta negra, aceite sabor a pollo, aceite sabor a salchicha, aceite sabor a tocineta, aceite sabor a cebolla, acesulfame k, acetaminofen en polvo, achiote en semilla, achiote en polvo, acido acetico glacial, acido acetico natural, acido acetil salicilico, acido ascorbico, vitamina c, acido benzoico, acido borico, acido citrico, acido clorhidrico, acido fosforico, acido tartarico, condimentos para embutidos, cremor tartaro, cultivos para yogurt, cultivos para kumis, cultivos para quesos, croscarmelosa sodica, cultivos probioticos, curandina, sal nitral rosada, dextrosa anhidra, edta, aceite de almendras dulces, aceite de coco, aceite mineral, levadura fresca, espatula de acero inoxidable, moldes para trufas, moldes para chocolate, moldes de silicona para chocolateria, moldes de policarbonato para chocolate, tapetes de silicona, serigrafias para chocolates, nidos para chocolate, crema de leche, moldes para galletas, espatulas plasticas, moldes desmoldables para torta, papel foil para chocolates, papel foil para trufas, colorantes hidrosolubles, blondas doradas, blondas plateadas, brochas en silicona, blondas de papel, blondas de icopor, capacillos para trufas, capacillos para cupcakes, colorantes metalizados, derretidoras de chocolate, bandejas doradas, cajas de lujo para chocolates, arequipe, dulce de leche, levadura para cerveza, levadura safale s-04, levadura safale be-134, levadura safale s-33, nutriente para levaduras, conector ball lock, mangueras atoxicas, insumos para alimentos, insumos para farmaceutica, insumos para cosmetica, insumos para perfumeria, insumos para agroindustria, productos quimicos, materia prima, aditivos, colorantes, saborizantes, productos naturales, plantas, hierbas, especias, frutas, extractos, insumos para aseo, insumos para higiene, insumos para desinfeccion, material de laboratorio, reactivos de laboratorio, agares, caldos de cultivo, equipos de laboratorio, productos para panaderia, productos para pasteleria, productos para chocolateria, productos para cerveceria, maltas, lupulos, nutrientes para cerveza, implementos para cerveceria.</t>
+  </si>
+  <si>
+    <t>Master Beer Brewery</t>
+  </si>
+  <si>
+    <t>https://masterbeer.com.co/</t>
+  </si>
+  <si>
+    <t>314 442 2538</t>
+  </si>
+  <si>
+    <t>jtorres@masterbeer.com.co</t>
+  </si>
+  <si>
+    <t>Carrera 7 # 161-29</t>
+  </si>
+  <si>
+    <t>Cerveza, Cervezas, Cerveza Artesanal, Cervezas Artesanales, Six Pack, 12 Pack, Barril, Cervezas Surtidas, Happy Pils, Lager, Red Ale, Amburana, Saison, Corozo, Mysteria IPA, IPA, Imperial Coconut Milk Stout, Coconut, Milk Stout, Stout, Tayronismo, Mamá Gose, Gose, Leal Craft, Neipa, Master Beer, Master Beer Brewery, Cerveza de Barril, Cerveza en Barril, Cerveza Colombiana, Cerveza Artesanal Colombiana, Comprar Cerveza Artesanal, Cervecería Artesanal, Cerveza a domicilio, Cerveza para eventos, Barril de cerveza, Cerveza por mayor, Distribuidor de cerveza artesanal, Cerveza artesanal en Bogotá, Cerveza artesanal para regalar, Regalos para cerveceros, Kit de cervezas, Cerveza artesanal premium, Cerveza de autor, Microcervecería, Cerveza de coco, Cerveza con frutas, Cerveza roja, Cerveza rubia, Cerveza negra</t>
+  </si>
+  <si>
+    <t>Insumos Cerveceros</t>
+  </si>
+  <si>
+    <t>https://insumoscerveceros.com.co/</t>
+  </si>
+  <si>
+    <t>313 294 9090</t>
+  </si>
+  <si>
+    <t>insumoscerveceros@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 18 A Sur No 11 A este -12</t>
+  </si>
+  <si>
+    <t>Malta Pilsen, Malta Pale Ale, Malta de Trigo, Malta Munich, Malta Viena, Avena arrollada, Malta Ahumada, Malta Melanoidil, Malta Biscuit, Malta Carapils, Malta Cara 20 SRM, Malta Cara 30 SRM, Malta Cara 60 SRM, Malta Cara 120 SRM, Malta Cara 180 SRM, Malta Caramelo, Cebada Tostada, Malta Chocolate, Malta Negra, Cebada en láminas, Malta Extra Pale, Trigo malteado, Avena, Malta Goldswaen Aroma, Malta Swaen Munich Dark, Lúpulo Amarillo, Lúpulo Northern Brewer, Lúpulo Cascade, Lúpulo Centennial, Lúpulo Fuggle, Lúpulo Chinook, Lúpulo Mandarina Bavaria, Lúpulo Nugget, Lúpulo Saaz, Lúpulo Hallertauer Tradition, Lúpulo Perle, Lúpulo Admiral, Lúpulo Ahtanum, Lúpulo Apollo, Lúpulo Bramling Cross, Lúpulo Brewer's Gold, Lúpulo Bravo, Lúpulo Bullion, Lúpulo Calypso, Lúpulo Citra, Lúpulo Cluster, Lúpulo Columbus, Lúpulo Crystal, Lúpulo Delta, Lúpulo El Dorado, Lúpulo Eroica, Lúpulo Falconer's Flight, Lúpulo First Gold, Lúpulo Galaxy, Lúpulo Idaho 7, Lúpulo Mosaic, Lúpulo Magnum, Lúpulo Sabro, Levadura Safale US-05, Levadura Safale K-97, Levadura Saftbrew BE 256 Abbaye, Levadura Safale T 58, levadura F2, Levadura Saflager S 23, Levadura Saflager W34/70, Levadura Safbrew WB-06, Levadura Saftbrew S 33, Levadura Safcider, Levadura Sigmund's Voss Kveik, brettanomyces, Levadura American Ale, Levadura Safale US-04, Fermentador, trampa de aire, airlock, Tubo para envasar, Termómetro, Botellas con tapa mecánica, Tapador de cervezas, Colador metálico, Manguera flexible, Olla grande, Enfriador Placas 30, Alambique, Tapadora Botellas, Auto Sifón, Filtro Fermentador, Cerveza Keg Party Pump, Filtro Bazooka Macerado, Conector De Dispensador De Cerveza, Cubos Fermentadores, Tanques brillantes, Sistemas de Enfriamiento, Sistemas de limpieza, Molino de rodillos para malta, Densímetro, Regulador de dióxido de carbono, Kit de Cerveza, Indian Pale Ale, Saborizante de Vainilla, Nutrientes para Levaduras, Clarificantes, Conservantes, Adjuntos, Implementos, Café en grano, Avena en hojuelas, Belgian Ale, Belgian IPA, cerveza sour, cervezas ácidas, IPA, American Ale, English Ale, Lager, Stout, Porter, Barley wine, Wheat beer, Pilsner, Lambic, ESB, Bitter.</t>
+  </si>
+  <si>
+    <t>DisCordoba (Barranquilla)</t>
+  </si>
+  <si>
+    <t>https://discordoba.com/</t>
+  </si>
+  <si>
+    <t>323 254 0422</t>
+  </si>
+  <si>
+    <t>contacto@discordoba.com</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Vía 40 # 69-58 Bodega D10</t>
+  </si>
+  <si>
+    <t>Envases de vidrio, envases para alimentos, envases para farmacéuticos, envases para licores, envases para cosméticos, envases decorativos, envases de plástico, envases para aseo, ingredientes y aditivos, cristalería, cristalería para bar, cristalería para hogar, vasos, copas, tapas, complementos para envases, frascos de vidrio, botellas de vidrio, envases para salsas, envases para conservas, envases para mermeladas, envases para compotas, envases para miel, goteros, envases para jarabes, viales, ampollas, envases para cremas, envases para perfumes, envases para esmaltes, tarros de vidrio, botellas para vino, botellas para pisco, botellas para ron, botellas para aguardiente, envases roll-on, potes, tarros cosméticos, envases PET, envases de polietileno, envases de polipropileno, envases para shampoo, envases para jabón líquido, envases para cremas corporales, envases para detergentes, envases para suavizantes, envases para ambientadores, dosificadores, válvulas, tapas plásticas, tapas metálicas, tapas de seguridad, subtapas, tapones, goteros plásticos, excipientes, agentes de relleno, emulsificantes, estabilizantes, conservantes, extractos naturales, edulcorantes, colorantes, saborizantes, acidulantes, antioxidantes, vitaminas, minerales, copas de vino, copas de champagne, copas de cóctel, vasos de agua, vasos de jugo, vasos de whisky, vasos de cerveza, jarras, decantadores, desarrollo de envases, desarrollo de tapas, etiquetado IML, in mold labeling, envases personalizados, envases a medida, packaging, soluciones de empaque, envases para emprendedores, envases para la industria alimenticia, envases para la industria cosmética, envases para la industria farmacéutica, envases para la industria de aseo, envases ecológicos, envases reciclables, envases sostenibles, Distribuidora Cordoba, Discordoba</t>
+  </si>
+  <si>
+    <t>Cocinista</t>
+  </si>
+  <si>
+    <t>https://www.cocinista.es/</t>
+  </si>
+  <si>
+    <t>+34 911 98 25 29</t>
+  </si>
+  <si>
+    <t>pedidos@cocinista.es</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Calle de los Fresadores, 2, 28939 Arroyomolinos</t>
+  </si>
+  <si>
+    <t>ingredientes, especias, kits de cocina, cerveza, vino, pan, queso, pasta, repostería, cocina molecular, carnes, embutidos, libros, utensilios, yogur, sushi, helados, aditivos alimentarios, productos de alimentación internacional, cuajo, cloruro cálcico, fermentos para queso, fermentos para yogur, moldes, tela de quesero, penicillium camemberti, ácido cítrico, sifón de cocina, cargas de n2o, balanza de precisión, cucharas medidoras, cocedor a baja temperatura, chiles, salsas, botánicos para gin tonic, material de bar, maltas, lúpulos, aceite de sésamo, aceite de jengibre, concentrado de naranja, concentrado de limón, concentrado de coco, concentrado de chocolate, concentrado de frambuesa, concentrado de nata, concentrado de fresa, concentrado de chicle, concentrado de avellana, concentrado de vainilla, comino molido, chile ancho, ramen, kimchi.</t>
+  </si>
+  <si>
+    <t>Cerveza Artesana</t>
+  </si>
+  <si>
+    <t>https://cervezartesana.es/</t>
+  </si>
+  <si>
+    <t>+34 622 18 33 40</t>
+  </si>
+  <si>
+    <t>tienda@cervezartesana.es</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Cardedeu</t>
+  </si>
+  <si>
+    <t>Carrer de la Indústria, 13, 08440 Cardedeu</t>
+  </si>
+  <si>
+    <t>Malta, lúpulo, levadura, kits de elaboración de cerveza, equipos para hacer cerveza, ollas para cerveza, fermentadores, molinos de malta, botellas para cerveza, barriles de cerveza, grifos de cerveza, conectores para barriles, enfriadores de mosto, termómetros para cerveza, densímetros, probetas, productos de limpieza para equipos de cerveza, sanitizantes para equipos de cerveza, extracto de malta, granos de malta, malta base, maltas especiales, maltas caramelo, maltas tostadas, lúpulo en pellet, lúpulo en flor, levadura ale, levadura lager, levaduras líquidas, levaduras secas, adjuntos para cerveza, copos de avena, copos de trigo, copos de cebada, azúcares para cerveza, dextrosa, maltodextrina, lactosa, miel para cerveza, frutas para cerveza, especias para cerveza, sales para tratamiento de agua, clarificantes de cerveza, kits de iniciación, kits todo grano, kits de extracto, kits de hidromiel, kits de sidra, kits de kombucha, miel para hidromiel, levadura para hidromiel, nutrientes para levadura, zumo de manzana para sidra, levadura para sidra, SCOBY para kombucha, té para kombucha, azúcar para kombucha, chapas para botellas, chapadoras, embotelladoras, airlocks, juntas para fermentadores, mangueras para trasvase, bombas para trasvase, filtros para cerveza, carbonatación forzada, cilindros de CO2, reguladores de presión, libros de cerveza artesanal, merchandising de cerveza, camisetas de cerveza, sudaderas de cerveza, abridores de botellas.</t>
+  </si>
+  <si>
+    <t>Prodel Agrícola</t>
+  </si>
+  <si>
+    <t>https://prodelagricola.com/</t>
+  </si>
+  <si>
+    <t>+34 973 18 41 12</t>
+  </si>
+  <si>
+    <t>info@prodelagricola.com</t>
+  </si>
+  <si>
+    <t>Lérida</t>
+  </si>
+  <si>
+    <t>Anglesola</t>
+  </si>
+  <si>
+    <t>Pol. Ind. el Segre, Carrer de la Indústria, 412, 25191</t>
+  </si>
+  <si>
+    <t>Transportadoras, Tanques de refrigeración, Lubricantes, Accesorios de bombeo, Bombas líquidos con grano, Bombas para líquidos, Accesorios depósitos, Almacenamiento, Depósitos de madera, Barrica roble francés, Barricas roble americano, Barricas roble húngaro, Barricas roble mixtas, Limpieza de barricas, Soporte para barricas, Fermentadores, Isobáricos, Isotermos, Accesorios de laboratorio, Consumibles de laboratorio, Cristalería de laboratorio, Equipos de medida, Equipos a gas, Equipos a vapor, Equipos eléctricos, Consumibles de filtración, Filtros caseros, Filtros de placa, Microfiltración, Adjuntos, Lúpulos, Maltas, Limpieza y desinfección, Accesorios detergencia, Desinfectantes, Detergentes, Maquinaria limpieza, Accesorios para mangueras, Mangueras, Mangueras presión alta, Mangueras temperatura alta, Capsuladoras, Etiquetadoras, Formadoras de cajas, Lavadoras, Enjuagadoras, Llenadoras, Taponadoras, Molinos eléctricos, Molinos manuales, Cubetas, Cubos, Embudos, Chips, Clarificantes, Coadyuvantes de filtración, Enzimas, Estabilizantes, Levaduras, Nutrientes, Sales, Control de temperatura, Dispensadores-Enfriadores, Equipos de frío, Intercambiadores de frío, Tapones, Envases, Embalajes, Botellas, Cajas de cartón, Lacres, APIPASTA, TIJERA ELECTRICA, MADURADOR PLASTICO, DETERGENTE ALCALINO, BACTERIAS LACTICAS, CAOLIN, CHITOCEL, QUITOSANO, POSTE MADERA, FILTRO ASPIRACION, MANGUERA ALIMENTARIA, SOPORTE INOX LLENADO BAG IN BOX, CAPACHO, CORTASETOS, SOPLADORA, MOTOSIERRA, Píldora Rapt Pill Digital, Refractómetro Digital, Filtro Carcasa Plástica, Cámara Refrigeradora, Termómetro Termostato, kits de elaboración de cerveza artesanal, LUPULO SABRO, LUPULO EL DORADO, LUPULO EKUANOT, LUPULO MOSAIC, LUPULO AZACCA, LUPULO CITRA, MALTA CHATEAU AVENA, MALTA CHATEAU MARIS OTTER, MALTA CHATEAU CRYSTAL, MALTA CHATEAU PILSEN, MALTA CHATEAU AHUMADA, LEVADURA LEVULIA PULCHERRIMA, LEVADURA PRIMAFLORA, LEVADURA LEVULIA TORULA, LEVADURA FERMOL.</t>
+  </si>
+  <si>
+    <t>El Secreto de la Cerveza</t>
+  </si>
+  <si>
+    <t>https://elsecretodelacerveza.com/</t>
+  </si>
+  <si>
+    <t>+34 623 18 19 23</t>
+  </si>
+  <si>
+    <t>info@elsecretodelacerveza.com</t>
+  </si>
+  <si>
+    <t>Calle de la Artesanía, 12, 28947 Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Lotes todo grano para cerveza, Concentrados de cerveza, Equipos completos para cerveza, Molinos de cereales, Molinos de malta, Maceración, Cocción, BIAB, Calentadores de agua, Bombas para cerveza, Fermentadores, Fermentadores de acero, Fermentadores de plástico, Accesorios Triclamp, Fermzilla, Kegmenter, KEG KING, Damajuanas, Tapones, Airlocks, Filtros para cerveza, Aireadores, Control de temperatura para fermentación, Enfriadores de cerveza, Embotellado de cerveza, Cierra botellas, Chapas de 26 mm, Chapas de 29 mm, Enlatado de cerveza, Tapones mecánicos, Cepillos para botellas, Sifones, Encorchadoras, Corchos, Llenadoras de botellas, Lavado de botellas, Tiradores de cerveza, Barriles de cerveza, Grifos para cerveza, Cabezales para barriles, Reguladores de CO2, Accesorios Ball-lock, Válvulas para cerveza, Accesorios de llenado, Tuberías para cerveza, Extractos de malta deshidratados, Maltas de cerveza, Maltas base, Maltas caramelo, Maltas tostadas, Maltas especiales, Maltas de trigo, Maltas de centeno, Maltas de espelta, Maltas ahumadas, Copos de cereales, Granos, Lúpulo de cerveza, Cryo hops, Lúpulos alemanes, Lúpulos americanos, Lúpulos ingleses, Lúpulos eslovenos, Lúpulos checos, Lúpulos de Oceanía, Levadura de cerveza, Levadura ale, Levadura lager, Levadura para cervezas de trigo, Levaduras Sour, Bacterias Sour, Nutrientes para levadura, Cultivo de levadura, Aditivos para cerveza, Tratamiento de agua, Aromatizantes, Especias para cerveza, Azúcares para cerveza, Clarificantes, Filtrantes naturales, Enzimas, Antiespumantes, Virutas de madera, Equipos para hacer vermut, Especias para vermut, Instrumental para vermut, Azúcar para vermut, Aditivos para hidromiel, Especias para hidromiel, Levadura para hidromiel, Concentrados de vino, Kits para hacer vino, Levaduras para vino, Tratamiento del vino, Concentrados de sidra, Kits para hacer sidra, Levadura para sidra, Ingredientes para sidra, Levaduras para destilados, Extractos para licores, Esencias para licores, Enzimas para destilados, Consumibles para destilados, Nutrientes para destilados, Bases para licores, Instrumentos de medición, Densímetros, Probetas, Termómetros, Medidores de pH, Matraces, Vasos de precipitado, Agitadores, Productos de limpieza, Fermentados, Conservas, Encurtidos, Mermeladas, Especias, Infusiones, Tés, Deshidratados, Especias de cocina, Condimentos, Sales, Copos, Semillas, Harinas, Hierbas medicinales, Accesorios para hacer queso, Consumibles para hacer queso, Yogur, Cristalería, Vasos, Copas, Botes, Tarros, Libros de cerveza, Libros de quesos, Libros de bebidas probióticas, Libros de hierbas y especias, Envases.</t>
+  </si>
+  <si>
+    <t>https://www.latiendadelcervecero.com/</t>
+  </si>
+  <si>
+    <t>+34 910 05 92 84</t>
+  </si>
+  <si>
+    <t>info@latiendadelcervecero.com</t>
+  </si>
+  <si>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>Calle de los Herreros, 2, 28914 Leganés</t>
+  </si>
+  <si>
+    <t>Adjuntos para cerveza, Azucar Candy, Clarificadores, Hierbas y Especias, Sales Minerales, Virutas de roble, Copos de cereales, Maltas Weyermann, Maltas Simpsons, Maltas German Malt, Levaduras secas para cerveza, Nutrientes para levaduras, Levaduras para vino, Levaduras para Champagne, Extractos de lúpulo, Aromas de lúpulo, Bolsas de hervido de lúpulo, Lúpulos en pellets, Cryo Hops, Extractos de Malta en polvo, Kits de elaboración de cerveza todo grano, Kits de extracto de malta, Enfriadores de mosto, Fermentadores, Damajuanas PET, Sifones, Conexiones John Guest, Barriles, Equipos para barriles, Repuestos para barriles Cornelius, Botellas de CO2, Conectores para barriles, Grifos para cerveza, Mangueras para cerveza, Chapas de 26mm, Chapas de 29mm, Chapadores, Tapones de plástico, Tapones cerámicos, Llenadores de botellas, Botellas para cerveza, Termómetros, Densímetros, Medidores de pH, Palas cerveceras, Cucharas cerveceras, Molinos de malta, Quemadores, Ollas para cocción, Ollas eléctricas, Máquinas cerveceras, Bombas para líquidos, Productos de limpieza y desinfección, Válvulas de acero inoxidable, Grifos de acero inoxidable, Utensilios de acero inoxidable, Accesorios para macerado, Kits para hacer vino, Concentrados de uva, Corchos para botellas, Tapones para botellas, Cápsulas termoretráctiles, Etiquetas para botellas, Aditivos para vino, Kits para hacer hidromiel, Kits para hacer sake, Kits para hacer licores, Kits para hacer chucrut, Equipos de destilación, Libros de cervecería, Software cervecero BeerSmith, Tiradores de cerveza, Equipos para microcervecerías, Productos en outlet.</t>
+  </si>
+  <si>
+    <t>2D2Dspuma</t>
+  </si>
+  <si>
+    <t>https://www.2d2dspuma.com/</t>
+  </si>
+  <si>
+    <t>+34 933 29 69 96</t>
+  </si>
+  <si>
+    <t>info@2d2dspuma.com</t>
+  </si>
+  <si>
+    <t>Carrer de la Riera de Sant Miquel, 29, 08006 Barcelona</t>
+  </si>
+  <si>
+    <t>Cerveza, Cerveza artesana, IPA, Stout, Weizen, Lambic, Gose, Rauch, Alt, Pils, Belgian Ale, Cerveza sin gluten, Cerveza sin alcohol, Hidromiel, Sake, Sidra, Malta, Lúpulo, Levadura, Kits para elaborar cerveza, Equipos para elaborar cerveza, Fermentadores, Maceradores, Termómetros, Botellas, Densímetros, Molinillos, Copas, Jarras, Abridores, Camisetas, Gorras.</t>
+  </si>
+  <si>
+    <t>Fermentando</t>
+  </si>
+  <si>
+    <t>https://www.fermentando.com/</t>
+  </si>
+  <si>
+    <t>+34 695 18 42 24</t>
+  </si>
+  <si>
+    <t>info@fermentando.com</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>No especificada (Tienda Online)</t>
+  </si>
+  <si>
+    <t>Kits de ingredientes para vino, kits para principiantes, kits de equipo, kits de ingredientes, limpieza, sanitización, accesorios de limpieza, limpiador, sanitizante, maltas, malta base, maltas especiales, extracto de malta, extracto líquido de malta, lme, extracto seco de malta, dme, aceite de lúpulo, extracto de lúpulo, lúpulos, lúpulos en pellet, levaduras, levaduras para cerveza, levaduras para vino, levaduras para destilados, levaduras para sidra, levaduras para tequila, nutrientes para levadura, adjuntos, azúcares, hojuelas, granos, químicos, clarificantes, molienda, macerado, hervido, ollas de acero inoxidable, palas, cucharas, enfriamiento, recirculado, bombas, dispensadores, enfriadores, chillers, mangueras, fermentación, fermentadores, fermentadores de acero inoxidable, fermentadores de plástico, embotellado, embarrilado, barriles, botellas, corcholatas, encorcholatador, portabotellas, portalatas, secadores de botellas, tapas, tapones, almacenamiento, medición, equipos Blichmann, equipos SS Brewtech, equipos Speidel, llaves, conexiones, molinos, libros, revistas, entrenamiento sensorial, espirales de roble, extractos.</t>
+  </si>
+  <si>
+    <t>MasMalta</t>
+  </si>
+  <si>
+    <t>https://www.masmalta.com/</t>
+  </si>
+  <si>
+    <t>+34 966 31 10 32</t>
+  </si>
+  <si>
+    <t>info@masmalta.com</t>
+  </si>
+  <si>
+    <t>Alicante</t>
+  </si>
+  <si>
+    <t>Ibi</t>
+  </si>
+  <si>
+    <t>Calle de la Font, 12, 03440 Ibi</t>
+  </si>
+  <si>
+    <t>malta, lupulo, levadura, kits de cerveza, extracto de malta, dextrosa, azucar, malta base, maltas caramelizadas, maltas tostadas, maltas especiales, maltas-bio, cara-tostadas, cereales, laminados, lúpulos alemanes, lúpulos americanos, lúpulos ingleses, lúpulos neocelandeses, lúpulo pellet t90, lúpulo en flor, levadura fermentis, levadura mangrove jack's, levadura lallemand, levadura aeb, sales, especias, clarificantes, nutrientes, equipos de plastico, equipos de inox, micro-cervecerias, maquinas de frio, fermentadores, maceradores, equipos de coccion, molinos, enfriadores, bombas, libros, utiles de envasado, chapadores, chapas de cerveza, chapas de cava, otros cierres, botellas, latas, barriles, grifos, columnas de grifos, tanquetas, enlatadoras, hidrometros, termometros, airlocks, balanzas, material de laboratorio, recetas, kitchen-beer, recambios, adjuntos, acido lactico, acido citrico, sulfato de calcio, cloruro de calcio, sulfato de magnesio, irish moss, carragenato, enzimas, pastillas carbonatadoras, azucar candi, sirope, tubo silicona, cepillo para botellas, llenador de botellas, escurridor de botellas, capsulas de pvc, corchos, jaulas para corchos, densimetro, probeta, refractometro, phmetro, termometro digital, termometro de alcohol, olla, quemador de gas, enfriador de placas, enfriador de inmersion, bomba magnetica, filtro de cerveza, barril cornelius, conector ball lock, conector pin lock, regulador de co2, botella de co2, dispensador de cerveza, grifo compensador, grifo de picnic, bandeja de goteo, kit de iniciacion, kit todo grano, kit de extracto.</t>
+  </si>
+  <si>
+    <t>Tu Cerveza Casera</t>
+  </si>
+  <si>
+    <t>https://www.tucervezacasera.com/</t>
+  </si>
+  <si>
+    <t>+34 918 31 63 36</t>
+  </si>
+  <si>
+    <t>info@tucervezacasera.com</t>
+  </si>
+  <si>
+    <t>malta, lupulo, levadura, extracto de malta, kits de cerveza, equipos para hacer cerveza, molinos de malta, adjuntos, herramientas, utensilios, botellas, barriles, fermentadores, maceradores, ollas, enfriadores, limpieza, embotellado, laboratorio, malta pilsener, malta pale ale, malta vienna, malta munich, malta de trigo, malta caramelo, malta tostada, malta ahumada, malta acida, malta de centeno, malta de espelta, lúpulo en pellets, lúpulo en flor, aceite de lúpulo, extracto de lúpulo, levadura seca, levadura líquida, fermentis, brewferm, mangrove jack's, muntons, copos de cebada, copos de avena, copos de maiz, copos de trigo, azucar candi, azucar de caña, dextrosa, glucosa, virutas de roble, clarificantes, acido citrico, acido lactico, sales de elaboracion, kits de extracto, kits todo grano, equipos de iniciacion, fermentadores de plastico, fermentadores de acero inoxidable, airlocks, grifos, termometros, densimetros, probetas, refractometros, medidores de ph, chapadoras, chapas, botellas de vidrio, barriles cornelius, conectores para barriles, reguladores de co2, serpentines de enfriamiento, bombas de trasvase, filtros, cepillos, detergentes, sanitizantes, libros, recetas, vino casero, licor casero, extractos de frutas, levaduras para vino, nutrientes para levadura, taninos, enzimas, corchos, taponadoras, botellas de vino, extractos de licor, hierbas para licor, especias para licor.</t>
+  </si>
+  <si>
+    <t>In-Cervisia</t>
+  </si>
+  <si>
+    <t>https://www.in-cervisia.com/</t>
+  </si>
+  <si>
+    <t>+34 644 41 00 24</t>
+  </si>
+  <si>
+    <t>info@in-cervisia.com</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Intermalta</t>
+  </si>
+  <si>
+    <t>https://www.intermalta.com/</t>
+  </si>
+  <si>
+    <t>+34 948 85 01 01</t>
+  </si>
+  <si>
+    <t>info@intermalta.com</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>San Adrián</t>
+  </si>
+  <si>
+    <t>Carretera de Estella, s/n, 31570 San Adrián</t>
+  </si>
+  <si>
+    <t>Malta, Malta Pilsen, Malta Pale Ale, Malta de Trigo, Malta Munich, Malta Viena, Avena arrollada, Malta Ahumada, Malta Melanoidil, Malta Biscuit, Malta Carapils, Malta Caramelo, Malta Dextrina, Cebada, Insumos para cerveza, Cereales, Avena, Trigo, Trigo Espelta, Triticale, Centeno, Leguminosas, Veza, Guisante, Haboncillo.</t>
+  </si>
+  <si>
+    <t>Lúpulos de León (Hopsteiner Spain)</t>
+  </si>
+  <si>
+    <t>https://www.hopsteiner.es/</t>
+  </si>
+  <si>
+    <t>+34 987 75 01 01</t>
+  </si>
+  <si>
+    <t>info@hopsteiner.es</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Villanueva del Carrizo</t>
+  </si>
+  <si>
+    <t>Calle del Lúpulo, 1, 24280 Villanueva del Carrizo</t>
+  </si>
+  <si>
+    <t>lúpulo, lúpulo en flor, lúpulo en pellets, extractos de lúpulo, productos de lúpulo, aceites de lúpulo, productos alfa, productos beta, lúpulo amargo, lúpulo aromático, lúpulo súper-alfa, Nugget, Columbus, Apollo, Eureka, Bravo, Drop-lemon.</t>
+  </si>
+  <si>
+    <t>AEB Ibérica</t>
+  </si>
+  <si>
+    <t>https://www.aeb-group.com/es</t>
+  </si>
+  <si>
+    <t>+34 916 28 89 00</t>
+  </si>
+  <si>
+    <t>info@aeb-iberica.com</t>
+  </si>
+  <si>
+    <t>Alcobendas</t>
+  </si>
+  <si>
+    <t>Calle de Valgrande, 6, 28108 Alcobendas</t>
+  </si>
+  <si>
+    <t>Afinado, Allergen free, Bacterias, Bioreguladores y nutrientes, Clarificantes, Coadyuvantes antibrett, Coadyuvantes antibotrytis, Coadyuvantes para termovinificaciones, Derivados de madera, Enzimas, Estabilizantes, Flotacion, Levaduras, Línea BIO, Línea chitosan, Taninos, Tratamientos especificos, Aplicaciones especiales, Desinfectantes, Detergentes, Detergentes acidos, Detergentes alcalinos, Detergentes alcalinos clorados, Detergentes enzimáticos, Espumadetergentes, Lubricantes, Otros detergentes, Tratamiento agua, Ultrafiltracion-filtración tangencial, Análisis genética, Dosificación del producto, Embotellado, Estabilizacion, Gestión de la fermentación, Indicadores y cuentalitros, Infusión, Lavado, Maceración, Manipulación de líquidos, Medidores, Microoxigenación, Nebulizadores, Rehidratación, Tratamiento de aguas residuales, Coadyuvantes de filtración, Elementos filtrantes, Filtración en profundidad, Housing, Instrumentos de análisis, Protección de las membranas, Antiespuma, Higienizantes, Activadores biologicos, Antiespuma food-grade, Clarificante estabilizantes para aceites vegetales, Reguladores &amp; nutricion, Alternativas a las cuaternarios, Linea Vikan, Listeria y biofilm, Procedimientos de lavado cip monofásico aeb, Levaduras secas activas.</t>
+  </si>
+  <si>
+    <t>Lallemand Brewing (distribuidores)</t>
+  </si>
+  <si>
+    <t>https://www.lallemandbrewing.com/es/spain/</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Múltiples</t>
+  </si>
+  <si>
+    <t>Contactar a través de distribuidores listados en su web</t>
+  </si>
+  <si>
+    <t>Levadura, levadura de cerveza, levadura seca, levadura ale, levadura lager, levadura de trigo, levadura belga, levadura kveik, levadura para IPA, levadura para NEIPA, levadura para Saison, levadura para cerveza sour, bacterias lácticas, levadura para acondicionamiento en botella, levadura de baja fermentación, levadura de alta fermentación, levadura híbrida, LalBrew Abbaye, LalBrew Belle Saison, LalBrew BRY-97, LalBrew CBC-1, LalBrew Diamond, LalBrew Farmhouse, LalBrew Munich Classic, LalBrew New England, LalBrew Nottingham, LalBrew NovaLager, LalBrew Pomona, LalBrew Verdant IPA, LalBrew Windsor, LalBrew Köln, Voss Kveik, WildBrew Philly Sour, WildBrew Sour Pitch, nutrientes para levadura, protectores de levadura, enzimas, clarificantes, estabilizadores de cerveza, alfa-amilasa, proteasa, glucoamilasa, beta-glucanasa, quitosano, isinglass, sílica gel, AB Vickers, Servomyces, Aromazyme, Chillzyme, Protozyme, Alphafloc, Britesorb BK, Clarizyme.</t>
+  </si>
+  <si>
+    <t>República Cervecera</t>
+  </si>
+  <si>
+    <t>https://republicacervecera.com.mx/</t>
+  </si>
+  <si>
+    <t>81 2320 7245</t>
+  </si>
+  <si>
+    <t>ventas@republicacervecera.com.mx</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Prolongación Las Torres #214, Regio Parque Industrial, C.P. 66367</t>
+  </si>
+  <si>
+    <t>Malta, lúpulo, levadura, cebada, trigo, centeno, adjuntos, azúcares, clarificantes, sales, tratamiento de agua, hierbas, especias, agentes de limpieza, sanitizantes, equipo para elaboración, molinos de malta, ollas de cocción, enfriadores de mosto, fermentadores, airlocks, termómetros, densímetros, probetas, equipo de medición, llenadoras de botellas, corcholatas, corcholatadoras, botellas, barriles, conectores para barril, tanques de CO2, reguladores de CO2, kits de ingredientes para cerveza.</t>
+  </si>
+  <si>
+    <t>Levabeer</t>
+  </si>
+  <si>
+    <t>https://levabeer.com/</t>
+  </si>
+  <si>
+    <t>(55) 6841 5690</t>
+  </si>
+  <si>
+    <t>ventas@levabeer.com</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Iztapalapa</t>
+  </si>
+  <si>
+    <t>Sur 69-A 237, interior 1, Col. Banjidal, C.P. 09450</t>
+  </si>
+  <si>
+    <t>Insumos Cerveceros de Occidente</t>
+  </si>
+  <si>
+    <t>https://insumoscerveceros.mx/</t>
+  </si>
+  <si>
+    <t>33 1657 7774 / 33 2465 9283</t>
+  </si>
+  <si>
+    <t>info@insumoscerveceros.mx</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Calle Cebada 302, Colonia La Nogalera, C.P. 44470</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aquí tienes una lista de palabras clave extraídas de la página web </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://insumoscerveceros.mx/</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>, que representan los productos que tienen a la venta:</t>
+    </r>
+  </si>
+  <si>
+    <t>BrewMasters</t>
+  </si>
+  <si>
+    <t>https://brewmasters.com.mx/</t>
+  </si>
+  <si>
+    <t>(442) 209 1011 / (442) 412 4712</t>
+  </si>
+  <si>
+    <t>info@brewmasters.com.mx</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Blvd. Hacienda El Jacal 403, Jardines de la Hacienda, 76180</t>
+  </si>
+  <si>
+    <t>Malta, lúpulo, levadura, kits de cerveza, adjuntos, azúcares, clarificantes, sales, nutrientes para levadura, tratamiento de agua, roble, especias, extracto de malta, malta base, maltas especiales, lúpulos americanos, lúpulos europeos, lúpulos del nuevo mundo, levaduras ale, levaduras lager, levaduras belgas, levaduras especiales, kits de recetas, equipo para elaboración, fermentadores, barriles, embotellado, enfriamiento, molinos, bombas, tuberías, conexiones, medición, limpieza, sanitización, ollas, quemadores, filtros, carbonatación, servicio de barril, botellas, corcholatas, llenadoras, taponadoras, enfriadores de mosto, fermentadores cónicos, fermentadores de plástico, fermentadores de acero inoxidable, barriles cornelius, tanques de CO2, reguladores, equipo de laboratorio, hidrómetros, termómetros, refractómetros, medidores de pH, productos de limpieza, sanitizantes, cepillos, kegerators, dispensadores de cerveza, cristalería, libros, cursos, capacitacion, kombucha, tapas para botellas, latas para cerveza, enlatadoras.</t>
+  </si>
+  <si>
+    <t>Haz Chela</t>
+  </si>
+  <si>
+    <t>https://hazchela.com/</t>
+  </si>
+  <si>
+    <t>(55) 5925 2830 / (55) 2291 1552</t>
+  </si>
+  <si>
+    <t>ventas.hazchela@gmail.com</t>
+  </si>
+  <si>
+    <t>Calzada Ermita Iztapalapa #2162, Col. Constitución de 1917, C.P. 09260</t>
+  </si>
+  <si>
+    <t>Maltas, lúpulos, levaduras, adjuntos, extractos, servicio de molienda de maltas, airlock, corcholata dorada, lúpulo cascade, avena malteada, hojuelas de cebada, cascarilla de arroz, extracto de malta en polvo, extracto de malta líquido, extracto para hacer cream soda, extracto para hacer root beer, hojuela de maiz, hojuelas de arroz, hojuelas de centeno, hojuelas de trigo, malta acidificada, malta ahumada, malta cara blond, malta melano, malta melanoidin, malta pale ale, malta maris otter, malta acidulated, malta pale high color, malta cara aroma, lúpulo alora, lúpulo aramis, lúpulo barbe rouge, lúpulo bru-1 lupomax, lúpulo cashmere lupomax, lúpulo comet, lúpulo crystal, lúpulo ekuanot, lúpulo el dorado cryo hops, lúpulo enigma, lúpulo eureka, lúpulo green bullet, lúpulo hersbrucker, lúpulo hüll melon, lúpulo loral, lúpulo loral cryo hops, lúpulo triumph, lúpulo citra, lúpulo bravo, lúpulo cashmere, lúpulo superdelic, lúpulo motueka, lúpulo sorachi ace, lúpulo uk east kent golding, lúpulo zappa, lúpulo mandarina bavaria, lúpulo chinook, lúpulo fuggle uk, lúpulo topaz, levadura safale us-05, levadura voss kveik, levadura safale s-33, levadura para vino, levadura bavarian lager, levadura premier cuvée, levadura bry-97, levadura safale t-58, levadura saflager s-23, levadura premier classique, levadura kölsch, levadura para hidromiel, levadura safcider, levadura windsor, levadura aurora, levadura premier rouge, levadura premier blanc, levadura belle saison, levadura abbaye, levadura lutra kveik, T duotight, abrazadera de acero inoxidable, acoplador D, adaptador para barril, adaptador para limpiar faucet, airlock doble burbuja, airlock para fermentador, airlock inteligente, airlock universal, anillo de bloqueo para espada de barril, antiespumante, aromazyme, auto sifon, autosifon de acero inoxidable, barril slim, barril torpedo cocktail, base para fermentador, bastón para transferencias, bolsa para malta y lúpulo, bombas, conectores rápidos duotight, controlador de temperatura, enfriadores de glicol, limpieza de equipos de dispensado, medición, reguladores, tapones, palas, mangueras, conexiones, kit de equipo pro, bolsa de malla de algodón para grano, bolsa de malla de nylon para lúpulo, termómetro de varilla, densímetro, probeta para densímetro, tubo de llenado, cubeta para fermentar, destapador para cubeta, grifo para cubeta, colocador de corcholatas de mesa, cepillo para botella, cuchara de plástico, pala de plástico, kit american ipa, kit american pale ale, kit american stout, kit american wheat, kit cream ale, kit czech lager, kit english porter, kit hefe weizen, kit imperial stout, kit irish red ale, kit mexican light lager, kit session ipa, kit vienna lager, tarjetas de regalo.</t>
+  </si>
+  <si>
+    <t>MICerveSA (Maltas e Insumos Cerveceros)</t>
+  </si>
+  <si>
+    <t>https://www.micervesa.mx/</t>
+  </si>
+  <si>
+    <t>(614) 427 8622 / (614) 413 0216</t>
+  </si>
+  <si>
+    <t>ventas@micervesa.mx</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Av. de las Industrias 13111, Complejo Industrial Chihuahua, 31136</t>
+  </si>
+  <si>
+    <t>Malta, Lúpulo, Levadura, Adjuntos, Químicos, Clarificantes, Sales, Tratamiento de Agua, Azúcares, Especias, Extractos, Kits de Cerveza, Malta Base, Malta Caramelo, Malta Tostada/Oscura, Malta Ahumada, Malta Acidificada, Maltas Especiales, Hojuelas, Weyermann, Avangard, Briess, Muntons, Rahr, Simpsons, Lúpulo Americano, Lúpulo Alemán, Lúpulo Inglés, Lúpulo Esloveno, Lúpulo Australiano, Lúpulo Neozelandés, Lúpulo Checo, Lúpulo Francés, Levadura Ale, Levadura Lager, Levadura de Trigo, Levadura Belga, Levadura Kveik, Levadura para Hidromiel, Levadura para Sidra, Levadura para Vino, Nutrientes para levadura, Equipo para manejo de levadura, Extracto de Malta seco, Extracto de Malta líquido, Extracto de Lúpulo, Enfriadores, Fermentadores, Válvulas, Conectores, Mangueras, Bombas, Molinos de Malta, Instrumentos de Medición, Termómetros, Densímetros, Refractómetros, Probetas, pHmetros, Básculas, Llenado y Embotellado, Llenadoras, Corcholatas, Corcholatadoras, Botellas, Jaulas para botella, Lavadoras de botellas, Secadores de botellas, Barriles, Conectores para barril, Tanques de CO2, Reguladores de CO2, Kits de conversión a barril, Limpieza y Sanitización, Detergentes, Sanitizantes, Cepillos, Rociadores, Libros de Cervecería, Kits de Ingredientes, Cursos de Cervecería, Regalos, Tarjetas de Regalo.</t>
+  </si>
+  <si>
+    <t>Brewnox</t>
+  </si>
+  <si>
+    <t>https://www.brewnox.com/</t>
+  </si>
+  <si>
+    <t>(664) 900 6981</t>
+  </si>
+  <si>
+    <t>contacto@brewnox.com</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>C. Granizo 640, Las Torres, 22470</t>
+  </si>
+  <si>
+    <t>Bombas, Ollas, Enfriadores, Filtros, Quemadores, Sistema Electrico, Molinos, Palas/Mezcladoras, Kits, Camlock, Roscadas, Triclamp, Quick Disconnect, Bulk Head, Compresion, Abrazaderas, Empaques, Valvula Bola, Valvula Triclamp, Otros, Termometro y Termopozo, Controlador de Temperatura, Hidrometro y Refractometro, Probadores de PH, Mirillas, Matraz y Componentes, Basculas, Fermentadores, Tanques, Airlock y Tapones, Chiller y Glycol, Sistema Ball Lock, Sistema Pin Lock, Sistema Sanke, Equipo para gas, Grifos y Shanks, Mangueras, Torres, Jockey Box, Mini Accesorios, Herramientas, Taponeras, Llenadoras, Tapas de botella, Growler y Accesorios, Sifones, Enlatadoras, Escurridores, Sanitizantes y limpiadores, Cepillos, Sistemas y accesorios, Saborizantes, Adivtivo para cerveza, Cultura, Molino de Grano, Carbonatador Quickcarb, Enlatadora, Speidel - Fermentador de Plastico.</t>
+  </si>
+  <si>
+    <t>Cervecería Duarte</t>
+  </si>
+  <si>
+    <t>http://cerveceriaduarte.mx/</t>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>insumos@cerveceriaduarte.mx</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Cerveza, Cerveza Artesanal, Red Setter, Irish Red, Schnauzer, Munich Helles, Chihuahua Agave, English Brown Ale, Beagle, English IPA, Bulldog, English Stout, Black Russian Terrier, Imperial Stout, Malta Base Premium 2H, Malta Pale Ale 2H, Malta Munich, Malta Vienna, Malta Superior Pilsen, Malta Dextra Pils, Malta Centeno, Malta Crystal 15, C-15, Malta CaraHell Especial, Lúpulo, Lúpulo Amarillo, Lúpulo Cascade, Lúpulo Centennial, Lúpulo Chinook, Levadura, Safale US-05, Saflager W34/70, Levadura para Champagne Redstar, Safbrew T-58, desinfectante para equipos.</t>
+  </si>
+  <si>
+    <t>SETGO</t>
+  </si>
+  <si>
+    <t>https://www.setgomx.com/</t>
+  </si>
+  <si>
+    <t>Kaminari Brewing (Distribuidor White Labs)</t>
+  </si>
+  <si>
+    <t>https://kaminaribrewing.com/</t>
+  </si>
+  <si>
+    <t>contacto@kaminari.com</t>
+  </si>
+  <si>
+    <t>Pochteca Insumos</t>
+  </si>
+  <si>
+    <t>https://tienda.pochteca.com.mx/</t>
+  </si>
+  <si>
+    <t>(55) 5278 5900</t>
+  </si>
+  <si>
+    <t>Miguel Hidalgo</t>
+  </si>
+  <si>
+    <t>Manuel Reyes Veramendi 6, San Miguel Chapultepec I Secc, 11850 (Corporativo)</t>
+  </si>
+  <si>
+    <t>Adhesivos, Solventes, Recubrimientos, Lubricantes, Materias Primas, Cuidado Personal y del Hogar, Alimentos, Tratamiento de Aguas, Industria en General, Adhesivos base agua, Adhesivos Hot Melt, Adhesivos de Poliuretano, Limpiadores, Solventes, thinner y mezclas, Maquinaria y empaque, Limpieza, Cuidado del hogar e industrial, Acuícola, Agroquímicos, Alimento para animales y mascotas, Bebidas, Cárnicos, Carpintería, Confitería, Empacadoras, Fabricación de vidrio, Fabricantes de pinturas, Farmacéutica, Ingenios azucareros, Lácteos, Minería, Nutrición humana, Panificación, Formiato de sodio, Hipoclorito de sodio, Colorante auramina, Coagulante Mardupol PCA, Destapacaños, Bisulfato de sodio, Goma guar, Película stretch manual, Película stretch automática, Tricloro tabletas, aditivos para la industria alimentaria, acidulantes, conservantes de alimentos, preservantes, espesantes, edulcorantes, OLEOQUÍMICOS, SILICONAS COSMÉTICAS, INSUMOS PARA COSMÉTICA NATURAL, SURFACTANTES Y EMULSIFICANTES, Cuidado de la piel, Cuidado del cabello, Protección solar, Color y maquillaje, Higiene y limpieza, Cuidado de mascotas, Coalescentes para pinturas, Espuma poliuretano spray, Rheomine 95, Wanfoam, Vinabond, Ácido clorhídrico, Ácido cresílico, Ácido crómico, Ácido dodecilbencen sulfónico (ADBS), Ácido esteárico, Papel Kraft, Hojas de Colores, Hojas de Color, Papel Amarillo Extrabrillante, Papel Fino, 2- Etil Hexil Sulfato de sodio, AC NET, Aceite de Ricino, Aceite de almendras dulces, Aceite de coco, Aceite de hueso de mamey, Aceite de oliva ozonificado, Aceite de pino, Aceite esencial de bergamota, Aceite esencial de eucalipto, Aceite esencial de geranio, Venta de solventes, Venta de Químicos, Insumos para industria alimenticia, Venta de lubricantes Castrol, Productos anticorrosión, Venta de productos de limpieza para el hogar, Alcohol láurico, Ácido oleico, Tripolifosfato de sodio, Cloruro de Sodio, Base UC Soften, Sulfato de sodio, Sal de grano industrial, Benzoato de sodio, Ácido oxálico, Quartamin 60, Dietanolamida de coco, Lauril éter sulfato de sodio.</t>
+  </si>
+  <si>
+    <t>Central Altiplano</t>
+  </si>
+  <si>
+    <t>malteurop.mx@gmail.com</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Ex-Hacienda Virreyes S/N, 75160 Oriental</t>
+  </si>
+  <si>
+    <t>Provedora de Lúpulos e Insumos Cerveceros (PLIC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -451,6 +1482,15 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -466,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -485,6 +1525,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,6 +1556,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1487,612 +2540,552 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>142</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>148</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>225</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3"/>
@@ -2124,11 +3117,8 @@
     <hyperlink r:id="rId16" ref="B17"/>
     <hyperlink r:id="rId17" ref="B18"/>
     <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2201,612 +3191,384 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>245</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>254</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>273</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3"/>
@@ -2829,20 +3591,8 @@
     <hyperlink r:id="rId7" ref="B8"/>
     <hyperlink r:id="rId8" ref="B9"/>
     <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2915,622 +3665,476 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>302</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>310</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>318</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>321</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>326</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>169</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>348</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>362</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>372</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>75</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>381</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>385</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>87</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>392</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>396</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>91</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3548,14 +4152,545 @@
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
     <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.0"/>
+    <col customWidth="1" min="2" max="2" width="32.25"/>
+    <col customWidth="1" min="3" max="3" width="18.75"/>
+    <col customWidth="1" min="6" max="6" width="18.63"/>
+    <col customWidth="1" min="8" max="8" width="58.63"/>
+    <col customWidth="1" min="9" max="9" width="22.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="I4"/>
+    <hyperlink r:id="rId5" ref="B5"/>
+    <hyperlink r:id="rId6" ref="B6"/>
+    <hyperlink r:id="rId7" ref="B7"/>
+    <hyperlink r:id="rId8" ref="B8"/>
+    <hyperlink r:id="rId9" ref="B9"/>
+    <hyperlink r:id="rId10" ref="B10"/>
+    <hyperlink r:id="rId11" ref="B11"/>
+    <hyperlink r:id="rId12" ref="B12"/>
+  </hyperlinks>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Proveedores.xlsx
+++ b/Proveedores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="526">
   <si>
     <t>nombre</t>
   </si>
@@ -416,6 +416,171 @@
     <t>Vajilla, vasos, copas, jarras, platos, compoteras, tazas, pocillos, mates, ensaladeras, frascos, potes, botellas, envases de vidrio, frascos para alimentos, frascos para conservas, frascos para mermelada, frascos para miel, potes para yogur, botellas para salsa, botellas para aceite, botellas para vinagre, botellas para bebidas, botellas para agua, botellas para gaseosa, botellas para jugo, botellas para vino, botellas para espumante, botellas para cerveza, botellas para licor, botellas para aperitivos, envases para cosmética, potes para cremas, envases para perfumería, frascos para perfumes, envases para farmacia, frascos medicinales, ampollas, viales, frascos gotero.</t>
   </si>
   <si>
+    <t>Porta Hermanos S.A.</t>
+  </si>
+  <si>
+    <t>https://www.porta.com.ar/</t>
+  </si>
+  <si>
+    <t>0351 - 4938400</t>
+  </si>
+  <si>
+    <t>comunicacion@porta.com.ar</t>
+  </si>
+  <si>
+    <t>Av. Juan B. Justo 3651</t>
+  </si>
+  <si>
+    <t>alcohol de cereal, alcohol tridestilado, alcohol etílico, alcohol al 96%, alcohol al 70%, alcohol medicinal, alcohol alimenticio, alcohol cosmético, alcohol desinfectante, alcohol puro, alcohol en gel, alcohol en gel con aloe vera, alcohol en gel kids, alcohol en gel neutro, alcohol en gel hidratante, jabones antibacteriales, toallas antibacteriales, vinagres, vinagre de alcohol, vinagre de manzana, vinagre de vino, vinagre de arroz, vinagre para escabeche, vinagre refinado, aceto balsámico, aceto original, aceto ahumado, aceto ketchup, aceto mostaza, aceto curry, salsas, aderezos, fernet, fernet con cola, vodka, vodka saborizado, licor, jugo de limón, proteínas vegetales, proteína de soja, proteína de arveja, proteína de garbanzo, insumos industriales, bioetanol, carbonato de calcio, gas carbónico biogénico, aceite de soja, aceite de maíz, acetato de sodio, nutrición animal, burlanda de maíz, suplementos para ganado, premezcla líquida para bovinos, concentrado proteico y mineral para animales, SIOUX, Silk, Liquid Feed</t>
+  </si>
+  <si>
+    <t>Bialcohol (Porta Hnos)</t>
+  </si>
+  <si>
+    <t>https://www.bialcohol.com.ar/extra-neutro/</t>
+  </si>
+  <si>
+    <t>alcohol etílico, alcohol al 96%, alcohol al 70%, alcohol en gel, alcohol tridestilado, alcohol de cereal, alcohol extra neutro, sanitizante de manos, sanitizante de superficies, alcohol en spray, alcohol con clorhexidina, dispenser de alcohol, kit sanitizante, barbijo, máscara facial, cofia, guantes de nitrilo, guantes de látex, amonio cuaternario, lavandina, cloro, desinfectante, desengrasante, detergente, jabón líquido, limpiador de vidrios, lustramuebles, perfumador de ambientes, cera para pisos, secuestrante de olores, removedor de ceras, limpiador cremoso, ácido muriático, soda cáustica, shampoo para auto, silicona para auto, limpia tapizados, revividor de caucho, aromatizante para auto, lavandina en gel, pastillas de cloro, limpiahornos, apresto para ropa, suavizante para ropa, jabón en polvo, jabón líquido para ropa, quitamanchas, malta base, malta pilsen, malta pale ale, malta viena, malta munich, malta caramelo, malta chocolate, malta tostada, malta ahumada, malta de trigo, malta de centeno, avena arrollada, cebada tostada, trigo malteado, lúpulo, lúpulo cascade, lúpulo nugget, lúpulo kent golding, lúpulo hallertau, lúpulo saaz, lúpulo magnum, lúpulo chinook, lúpulo fuggles, levadura para cerveza, levadura ale, levadura lager, levadura para hidromiel, levadura para vino, clarificante de cerveza, pastillas carbonatadoras, dextrosa, azúcar de maíz, miel, jengibre, anís estrellado, coriandro, cardamomo, canela en rama, clavo de olor, nuez moscada, piel de naranja, chips de roble, airlock, termómetro, densímetro, probeta, cepillo para botellas, llenador de botellas, tapadora de botellas, tapas corona, botellas de vidrio, barril de acero inoxidable, canilla para barril, conector para barril, regulador de co2, tubo de co2, mini keg, fermentador, olla de maceración, falso fondo, enfriador de mosto, molino de granos, balanza digital, cuchara cervecera, bolsa de macerado, manguera atóxica, pala cervecera, filtro de bazooka, latas para cerveza, tapas para latas, etiquetas para latas, pack de cartón para latas, gin, gin artesanal, gin de autor, gin tirado, vodka, vodka saborizado, aperitivos, licores, ron, whisky, tequila, fernet, bitter, vermut, vino, vino tinto, vino blanco, vino rosado, espumante, champagne, copas de vino, copas de gin, vasos de whisky, coctelera, medidor de bebidas, removedor de tragos, bolsas de papel, bolsas de friselina</t>
+  </si>
+  <si>
+    <t>Fradealco S.A.</t>
+  </si>
+  <si>
+    <t>https://www.fradealco.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 7700-1605</t>
+  </si>
+  <si>
+    <t>graneles@fradealco.com.ar</t>
+  </si>
+  <si>
+    <t>Burzaco</t>
+  </si>
+  <si>
+    <t>Tomás Guido 1848</t>
+  </si>
+  <si>
+    <t>Alcohol etílico, alcohol al 96%, alcohol de cereal, alcohol extra neutro, alcohol tridestilado, alcohol alimenticio, alcohol al 70%, alcohol sanitizante, alcohol en gel, alcohol en spray, alcohol con clorhexidina, alcohol con glicerina, vinagre de alcohol, vinagre de manzana, vinagre de vino, aceto balsámico, acetos saborizados, sanitizante de manos, sanitizante de superficies, limpiadores multiuso, kits de limpieza, dispensers, pulverizadores, envases.</t>
+  </si>
+  <si>
+    <t>Rogeane S.R.L.</t>
+  </si>
+  <si>
+    <t>https://rogeane.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 (03327)-411573 / 411593</t>
+  </si>
+  <si>
+    <t>ventas@rogeane.com.ar</t>
+  </si>
+  <si>
+    <t>Tortuguitas</t>
+  </si>
+  <si>
+    <t>Estados Unidos 4697</t>
+  </si>
+  <si>
+    <t>Alcohol etílico 96º – BG, Alcohol etílico 96º – HQ, Rogebact – Aditivo Alimenticio, Diluyente Industrial, Alcohol etílico 70º, Alcohol en Gel, Alcohol Isopropílico, Melaza, Azúcar</t>
+  </si>
+  <si>
+    <t>DARA S.A.</t>
+  </si>
+  <si>
+    <t>http://darasa.com.ar/</t>
+  </si>
+  <si>
+    <t>(0341) 492-8700</t>
+  </si>
+  <si>
+    <t>info@darasa.com.ar</t>
+  </si>
+  <si>
+    <t>Parque Industrial Alvear, Alvear</t>
+  </si>
+  <si>
+    <t>Ruta Provincial Nº 21 KM 7</t>
+  </si>
+  <si>
+    <t>DILUYENTE M1, DISOLVENTE DE ESENCIAS, METANOL AL 99.9%, ETANOL BUEN GUSTO, ALCOHOL ETÍLICO ANHIDRO</t>
+  </si>
+  <si>
+    <t>Arcor (División Agronegocios)</t>
+  </si>
+  <si>
+    <t>https://www.arcor.com/ar/agronegocios</t>
+  </si>
+  <si>
+    <t>0810-122-0050</t>
+  </si>
+  <si>
+    <t>ventasar01@ardion.com.ar</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Ruta P. 191 Km. 4,5</t>
+  </si>
+  <si>
+    <t>Alcohol etilico, alcohol tridestilado, alcohol de cereal</t>
+  </si>
+  <si>
+    <t>LADCO</t>
+  </si>
+  <si>
+    <t>https://www.ladco.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 4752 1010</t>
+  </si>
+  <si>
+    <t>No especificado</t>
+  </si>
+  <si>
+    <t>Villa Lynch</t>
+  </si>
+  <si>
+    <t>alcohol isopropílico, ipa, alcohol etílico, iso-butanol, n-butanol, metanol, alcohol en gel, alcohol etilico anhidro 99 %, biocombustible, acetona, metiletilcetona, mek, metilisobutilcetona, mibk, butilglicol, dowanol pm, dowanol pma, etilenglicol, etilglicol, etildiglicol, glicerina vg usp, propilenglicol, butildiglicol, propilenglicol usp, acetato de amilo, acetato de iso-amilo, acetato de butilglicol, acetato de butilo, acetato de iso-butilo, acetato de etilglicol, acetato de etilo, acetato de metilo, flexocean 2.0, percloro-butanol, diluyentes de limpieza, percloroetileno, tricloroetileno, cloruro de metileno, desengrasante flush 22x, solvente dielectrico citrico, solvente para electro erosión, anticongelantes permanentes, anticongelantes propilénicos, anticongelantes etilénicos, thinner, tolueno, xileno, alifáticos, aguarrás, clorito de sodio al 30%</t>
+  </si>
+  <si>
+    <t>Iria Flavia S.A.</t>
+  </si>
+  <si>
+    <t>http://www.alcoholeraflavia.com.ar/</t>
+  </si>
+  <si>
+    <t>La Reja, Moreno</t>
+  </si>
+  <si>
+    <t>alcohol extra neutro, alcohol al 96% alimenticio, alcohol en gel, toallitas antibacteriales, alcohol al 70% spray, colorantes en polvo naturales, colorantes insolubles en agua, colorantes solubles en agua, acesulfamo-k, colorante líquido especial azúcar, aromas líquidos, aromas dulces, aromas salados, aromas en pasta, crema gelatina para relleno, pasta aroma de rosco glaseado, aroma de jazmín, colorante polvo violeta, aroma de laurel, estabilizante nata, alginato sódico, aroma de perfecto amore, aroma de biscuit, crema para relleno de mandarina, aroma de princesa, glucono delta lactona, sorbitol, sacarina, fructosa, aspartame, aroma de manzana verde, aroma de melón, aroma de hojaldre, pegamento comestible líquido, aroma de queso mascarpone, aroma de caramelo, alcohol etílico 96º, alcohol de cereal tridestilado.</t>
+  </si>
+  <si>
+    <t>Ri-Mar Alcoholes S.R.L.</t>
+  </si>
+  <si>
+    <t>https://rimarsrl.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 381 590 2934</t>
+  </si>
+  <si>
+    <t>ecommerce@saniginio.com.ar</t>
+  </si>
+  <si>
+    <t>Tucumán</t>
+  </si>
+  <si>
+    <t>San Miguel de Tucumán</t>
+  </si>
+  <si>
+    <t>Av Jujuy 4569</t>
+  </si>
+  <si>
+    <t>alcoholes etilicos, sanitizantes, vinagres, alcohol de graduación 96, alcohol de graduación 70, sanitizantes de manos con humectantes, alcohol desnaturalizado, soplado de envases, fraccionamiento de alcoholes etilicos, san iginio</t>
+  </si>
+  <si>
     <t>Almacen Cervecero</t>
   </si>
   <si>
@@ -804,9 +969,6 @@
   </si>
   <si>
     <t>(4) 506 21 20 / 300 257 9309</t>
-  </si>
-  <si>
-    <t>No especificado</t>
   </si>
   <si>
     <t>Antioquia</t>
@@ -2434,14 +2596,265 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2466,8 +2879,17 @@
     <hyperlink r:id="rId19" ref="B20"/>
     <hyperlink r:id="rId20" ref="B21"/>
     <hyperlink r:id="rId21" ref="B22"/>
+    <hyperlink r:id="rId22" ref="B23"/>
+    <hyperlink r:id="rId23" ref="B24"/>
+    <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2540,231 +2962,231 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -2772,289 +3194,289 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20">
@@ -3191,263 +3613,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
@@ -3665,405 +4087,405 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
@@ -4226,364 +4648,364 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15">

--- a/Proveedores.xlsx
+++ b/Proveedores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="642">
   <si>
     <t>nombre</t>
   </si>
@@ -581,6 +581,357 @@
     <t>alcoholes etilicos, sanitizantes, vinagres, alcohol de graduación 96, alcohol de graduación 70, sanitizantes de manos con humectantes, alcohol desnaturalizado, soplado de envases, fraccionamiento de alcoholes etilicos, san iginio</t>
   </si>
   <si>
+    <t>Armabuya</t>
+  </si>
+  <si>
+    <t>https://armabuya.mercadoshops.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 4584-7788</t>
+  </si>
+  <si>
+    <t>info@armabuya.com.ar</t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Juan Agustín García 1457</t>
+  </si>
+  <si>
+    <t>frascos de vidrio, frascos de plástico, envases de vidrio, tapas para frascos, tapas doradas, tapas plásticas, tapas con perforación para sorbete, sorbetes, botellas de vidrio, frascos para mermelada, frascos para conservas, frasco con manija, botellón growler, frasco amanecer, frasco hexagonal, frasco para souvenirs, frasco botella jarabe, frasco colirio, frascos para velas, frascos herméticos, frascos para dietética, frascos para bazar.</t>
+  </si>
+  <si>
+    <t>Arpex</t>
+  </si>
+  <si>
+    <t>https://arpex.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 261 599-2058</t>
+  </si>
+  <si>
+    <t>info@arpex.com.ar</t>
+  </si>
+  <si>
+    <t>Luján de Cuyo</t>
+  </si>
+  <si>
+    <t>Acceso Sur – lateral Este Km 17</t>
+  </si>
+  <si>
+    <t>nsumos enológicos, barricas de roble francés, barricas de roble americano, foudres, roll, tapones circulares, corchos, insumos lamothe-abiet, botellas italianas, corchos técnicos, botellas especiales, packaging para vinos</t>
+  </si>
+  <si>
+    <t>Blue Sky SA</t>
+  </si>
+  <si>
+    <t>https://www.blueskysa.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 261 424-4311</t>
+  </si>
+  <si>
+    <t>(No especificado)</t>
+  </si>
+  <si>
+    <t>Santa Cruz 226</t>
+  </si>
+  <si>
+    <t>botellas de vidrio, envases de vidrio, tapas rosca, corchos, tapones, tapas pilfer, screw caps, aluminio</t>
+  </si>
+  <si>
+    <t>Dc Inc</t>
+  </si>
+  <si>
+    <t>https://www.dcinc.com.ar/</t>
+  </si>
+  <si>
+    <t>(Contacto vía web)</t>
+  </si>
+  <si>
+    <t>(Venta online)</t>
+  </si>
+  <si>
+    <t>latas, botellas, cajas, vasos, copas, botellones, accesorios, decorado, botella, r, agropecuario, ambar, bordalesa, verde, borgoña, gin, premier, tucuman, liso, whisky, bajo, galata, precinto, termocontraible, colores, spirit, botellon, importado, growler, tapa, bitter, ali, plástica, tapón, barrica, tipo, t, beige, negro, pack, flint, pilfer, plastico, espumante, guarda, lata, cata, licor, soda, pinta, wind</t>
+  </si>
+  <si>
+    <t>ENLATA®</t>
+  </si>
+  <si>
+    <t>https://enlata.com.ar/</t>
+  </si>
+  <si>
+    <t>letchebarne@enlata.com.ar</t>
+  </si>
+  <si>
+    <t>(Servicio móvil en todo el país)</t>
+  </si>
+  <si>
+    <t>(Múltiples)</t>
+  </si>
+  <si>
+    <t>cerveza, vino, sidra, ready to drink, cold brew, gaseosa, agua tónica, agua sin gas, hard seltzer, nitro té, servicio de envasado móvil, envasado de bebidas, control de calidad, consultoría de envasado, almacenamiento de bebidas, enlatado</t>
+  </si>
+  <si>
+    <t>Envases del Plata</t>
+  </si>
+  <si>
+    <t>https://web.envasesgroup.net/</t>
+  </si>
+  <si>
+    <t>+54 11 5168-0800</t>
+  </si>
+  <si>
+    <t>El Palomar</t>
+  </si>
+  <si>
+    <t>Av. Guillermo Marconi 1035</t>
+  </si>
+  <si>
+    <t>envases de aluminio, envases de hojalata, envases descartables, envases farmacéuticos, envases plásticos rígidos termoformados, envases de papel, láminas extruidas, envases para lácteos, envases para postres, envases para café, envases para bebidas, envases para helados, envases para sopas, envases para productos para untar, envases para cosméticos personales, envases para limpieza del hogar, botellas, tarros, preformas, envases de aluminio para bebidas, tapas de aluminio, envases de hojalata para bebidas, envases para alimentos, envases para productos del mar, envases para productos lácteos, envases para servicio de comida, envases para aderezo, envases para aceites, envases para galletas, envases para dulces, envases para chocolates, envases para línea general, envases para pinturas, cubos metálicos, cubos de plástico, aerosol, tambores de plástico, tambores de metal, bidones, vasos plásticos, vasos especiales, potes, tapas, platos, bandejas, polipapel, foil de aluminio para blister, laminados para polvos, rosca, fea15, fea20, pulgada</t>
+  </si>
+  <si>
+    <t>Hace Pack</t>
+  </si>
+  <si>
+    <t>http://www.hacepack.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 11 3941-2423</t>
+  </si>
+  <si>
+    <t>info@hacepack.com.ar</t>
+  </si>
+  <si>
+    <t>Almirante Brown</t>
+  </si>
+  <si>
+    <t>Int. Ing. Carmona 2345, Parque Industrial Burzaco</t>
+  </si>
+  <si>
+    <t>latas de aluminio, tapas para latas, etiquetas autoadhesivas, opp, impresión digital, mangas termocontraibles, enganches para latas, cajas de cartón</t>
+  </si>
+  <si>
+    <t>Milenvases</t>
+  </si>
+  <si>
+    <t>https://www.milenvases.com/</t>
+  </si>
+  <si>
+    <t>+54 11 4924-8029</t>
+  </si>
+  <si>
+    <t>info@milenvases.com</t>
+  </si>
+  <si>
+    <t>Av. La Plata 1583</t>
+  </si>
+  <si>
+    <t>envases de vidrio, envases de plástico, botellas, envases de aluminio, válvulas, tapas, goteros, potes, tarros, baldes, bidones, cajones, tambores, cajas, tubos, tapas de hojalata, tapas plásticas, velas, frascos, vallas delimitadoras, cestos de residuos, tachos de residuos, papeleros, contenedores de residuos, cucharas, bandejas, carros de lavanderia, palas, escobetas, cubierteros, organizadores, ampollas, vacunas pet</t>
+  </si>
+  <si>
+    <t>MOMA Argentina</t>
+  </si>
+  <si>
+    <t>https://www.momaargentina.com/</t>
+  </si>
+  <si>
+    <t>ventas@momaargentina.com</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Austria Norte 2129, Troncos del Talar</t>
+  </si>
+  <si>
+    <t>botellas de vidrio, botellas para cerveza, botellas para jugos, botellas para salsas, botellas para vino, botellas para licores, botellas para aceites, frascos de vidrio, frascos grandes, frascos medianos, frascos mini, vasos, copas, vasos cerveceros</t>
+  </si>
+  <si>
+    <t>+54 11 4256-2010</t>
+  </si>
+  <si>
+    <t>talentos@rigolleau.com.ar</t>
+  </si>
+  <si>
+    <t>Av. 14, 4651</t>
+  </si>
+  <si>
+    <t>frascos, botellas, potes, tapas, envases, envases para alimentos, envases para dulces, envases para mermeladas, envases para conservas, envases para encurtidos, envases para cafés, botellas para aceites, botellas para cervezas, botellas para jugos, botellas para destilados, petacas, botellas para agua, botellas para esencias, goteros, envases para líquidos, envases para sólidos, envases para veterinarios, envases para agropecuarios, envases para antibióticos, bazar, vasos, copas, jarras, frascos para miel, frascos para yogur, botellas para salsa, botellas para tomate, botellas para vino, botellas para espumante, damajuanas, tapas plásticas, tapas metálicas, decoración, envases para cosmética, perfumería, difusores.</t>
+  </si>
+  <si>
+    <t>Verallia Argentina</t>
+  </si>
+  <si>
+    <t>https://ar.verallia.com/</t>
+  </si>
+  <si>
+    <t>+54 261 413-0200</t>
+  </si>
+  <si>
+    <t>Guaymallén</t>
+  </si>
+  <si>
+    <t>Carril Nacional 6070, Rodeo de la Cruz</t>
+  </si>
+  <si>
+    <t>envases de vidrio, botellas de vidrio, frascos de vidrio, potes de vidrio, botellas, frascos, potes, envases, envases para bebidas, envases para alimentos, botellas para vino, envases para vino, vinos tranquilos, vinos espumosos, botellas para espumante, envases para espumante, botellas para licores, envases para licores, botellas para espirituosas, envases para espirituosas</t>
+  </si>
+  <si>
+    <t>Zeta Envases</t>
+  </si>
+  <si>
+    <t>https://zenvases.com/</t>
+  </si>
+  <si>
+    <t>+54 9 261 374-0016</t>
+  </si>
+  <si>
+    <t>frascos de vidrio, goteros de vidrio, frascos pet, frascos para jarabe, difusores de vidrio, botellas plásticas, bidones para combustible, frascos perfumeros, kits de perfumería, envases para cosmética, envases para alimentos, tapas, tetinas, recipientes para residuos, frascos miniatura.</t>
+  </si>
+  <si>
+    <t>Aromáticas Alto Valle</t>
+  </si>
+  <si>
+    <t>https://www.aromaticasaltovalle.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 298 438-8334</t>
+  </si>
+  <si>
+    <t>hola@aromaticasaltovalle.com.ar</t>
+  </si>
+  <si>
+    <t>General Roca</t>
+  </si>
+  <si>
+    <t>combo diurético, combo protector del hígado, combo para dormir mejor, caña con ruda, spray de albahaca, spray de tomillo, spray romero, spray orégano, combo post afeitado, combo anti caida del cabello, combo cocinero, combo para la acidez, combo frescura y vitalidad, mix matero floral herbal, agua de rosas antiguas, bruma facial, caja misteriosa, combo esencias culinarias, combo elaboración de cosmética, combo coctelería natural, crema cicatrizante de caléndula, matico &amp; lavanda, tónico de lavanda y manzanilla, stevia, hidrolato de rosas, pétalos de rosa, hidrolato de lavanda, lavanda, hidrolato de manzanilla, manzanilla, crema relajante de lavanda &amp; manzanilla, crema de caléndula, crema rejuvenecedora de rosa mosqueta y melisa, gel de lavanda, diurético, protector del hígado, para dormir, post afeitado, anti caida del cabello, acidez, frescura, vitalidad, matero floral herbal, agua de rosas, esencias culinarias, elaboración de cosmética, coctelería natural, crema cicatrizante, caléndula, matico, tónico de lavanda, pétalos de rosa, hidrolato de lavanda, hidrolato de manzanilla, crema relajante, crema de caléndula, crema rejuvenecedora, rosa mosqueta, melisa, gel de lavanda, albahaca, tomillo, romero, orégano</t>
+  </si>
+  <si>
+    <t>Coral Club</t>
+  </si>
+  <si>
+    <t>https://www.coralclub.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 11 3862-5201</t>
+  </si>
+  <si>
+    <t>coralclub.ar@gmail.com</t>
+  </si>
+  <si>
+    <t>blends para mate, blends para té, hierbas, flores, frutas y especias para mate y té, especias, blend de especias, botánicos, mix de botanicos para gin tonic, kit de mixologia, hibiscus, coriandro, petalos de rosa, lavanda, pimienta de jamaica, bayas de enebro, lima deshidratada, anana deshidratado, manzana deshidratada, limon deshidratado, frutas deshidratadas, box premium de regalo, box gin tonic, bazar, curso de coctelería, topping para mate, mix para mate</t>
+  </si>
+  <si>
+    <t>Distribuidora Lunic</t>
+  </si>
+  <si>
+    <t>https://distribuidoralunic.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 2354-5375</t>
+  </si>
+  <si>
+    <t>distribuidoralunic@gmail.com</t>
+  </si>
+  <si>
+    <t>productos orgánicos, aceites, salsas, aditivos alimentarios, arroz, azucar, miel, stevia, blend ice tea, blend sin teína, blends de te rooibos, blends de té, blends green tea, te verde, blends oolong, te azul, cereales, citricos, condimentos, especias, cumana sin tacc, fideos, flores secas mixtas, frutos secos, granolas, harinas integrales, hierbas medicinales, leche vegetal, legumbres, levaduras, pasta de mani, tahini, productos de cacao, productos de coco, sales naturales, semillas, arroz yamani integral, lentejas, hibiscus, flor de jamaica, manzanilla, avena arrollada, salvado de avena, mani tostado, curcuma, cedron, harina de avena, bicarbonato de sodio, coco en escamas, harina integral de trigo, semillas de girasol, canela, hongos de pino, tilo, castañas de cajú, mix de frutos secos, arándanos rojos, pasas, almendras, ciruela, datiles, nueces, pimenton ahumado, ajo en polvo, orégano, semillas de sésamo, jengibre, curry, romero, anis estrellado, merken, coriandro, remolacha en polvo, burrito, menta, chia, lino, clavo de olor, petalos de rosas</t>
+  </si>
+  <si>
+    <t>Distribuidora Pepino</t>
+  </si>
+  <si>
+    <t>https://distribuidorapepino.com.ar/shop/category/yerbas-y-hierbas-73</t>
+  </si>
+  <si>
+    <t>aceites de chia, aceites de coco, aceites de lino, aceites de nuez pecan, aceites de oliva, aceites de sesamo, aceto, aceitunas, adaptogenos, alfajores, barritas de cereales, snacks, arroces, avenas, cereales, cosmetica, salud, dulces, mermeladas, pastas, endulzantes, energizantes, suplementos, bebibles, fruta escurrida, fruta glaseada, higos, hongos secos, tomates secos, manzanas, papayas, peras, leches de almendras, leches de coco, leches de nuez pecan, hierbas, yerba antiacida, yerba organica, sales, sal rosada del himalaya, sal marina en escamas, sal marina, aceite de cannabis, aceite de canola, frutos secos, almendras, arandanos, avellanas, especias, aji molido, ajo picado, ajo en polvo, albahaca, anis en grano, canela en rama, canela molida, cebolla en escamas, chimichurri, clavo de olor, semillas, amapola, amaranto, chia, girasol pelado, lino, mix de semillas, legumbres, pasta de maní, castañas de para, nueces, harinas</t>
+  </si>
+  <si>
+    <t>Especias CV</t>
+  </si>
+  <si>
+    <t>https://especiascv.com.ar/</t>
+  </si>
+  <si>
+    <t>info@especiascv.com.ar</t>
+  </si>
+  <si>
+    <t>coriandro molido, anis estrellado, oregano, fenogreco, canela, romero, salvia, aji molido, nuez moscada grano, tomillo, mix pimientas, kumel, pimienta negra, laurel hojas, pimienta jamaica, anis grano, pimienta rosa, curcuma, pimienta blanca, estragon, comino, clavo de olor, jenjibre, pimienta verde, provenzal, curry, condimento para ravioles, chimichurri, condimento para arroz, condimento para pizza, especias surtidas, sopa juliana, hongos secos, perejil deshidratado, tomates secos, cebolla deshidratada, espinaca deshidratada, ajo granulado, bereber, colombo, hierbas finas, ras de hanout, mezcla de chiles, baharat, sambas, bicarbonato de sodio, coco rallado, chia, integral para hamburguesa, quinoa, amapola, mix semillas, sesamo blanco, sesamo negro, gelatina sin sabor, lino</t>
+  </si>
+  <si>
+    <t>New Garden</t>
+  </si>
+  <si>
+    <t>https://www.newgarden.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 4855-0010</t>
+  </si>
+  <si>
+    <t>info@newgarden.com.ar</t>
+  </si>
+  <si>
+    <t>Av. Warnes 2450</t>
+  </si>
+  <si>
+    <t>frutos secos, mixes de frutos secos, castañas de cajú, pistachos, almendras, nueces, frutos secos con chocolate, maíz frito, harinas de frutos secos, frutas deshidratadas, dátiles, ciruelas, pasas de uva, frutas glaseadas, especias, infusiones terapéuticas, sales, tés, infusiones, té en hebras, té en saquitos, yerbas, café, conservas, salsas, aderezos, harinas, premezclas, dips, untables, mermeladas, dulces, leches vegetales, bebidas vegetales, endulzantes, panes, galletitas, fideos, barritas, alfajores, suplementos, repostería, arroces, cereales, legumbres, aceites, semillas, cosmética natural, productos de desayuno, vinos, productos para celíacos, productos sin tacc, fideos de arroz, risotto, productos para sushi, productos para paella, productos orgánicos, productos sin azúcar agregada, productos veganos, productos sin lactosa, productos sin sal agregada, productos kosher, snacks saludables, productos gourmet, café tostado molido, azúcar de coco, agua de coco, té verde matcha, mix de especias, té helado, condimentos, pasta de dátil, vinagre de sidra de manzana, jugo de aloe vera, suplemento de cúrcuma, suplemento de jengibre, raíz de valeriana, goma xántica, goma guar, salsa alioli, bebida de aloe vera</t>
+  </si>
+  <si>
+    <t>Saborigal</t>
+  </si>
+  <si>
+    <t>http://www.saborigal.com/</t>
+  </si>
+  <si>
+    <t>+54 11 4246-2917</t>
+  </si>
+  <si>
+    <t>info@saborigal.com.ar</t>
+  </si>
+  <si>
+    <t>Lanús</t>
+  </si>
+  <si>
+    <t>Av. 25 de Mayo 1625</t>
+  </si>
+  <si>
+    <t>especias, condimentos, vegetales deshidratados, semillas, soluciones integrales para chacinados, soluciones integrales para empanados, materias primas, rebozadores, pan rallado, tripas, hilos, accesorios, máquinas.</t>
+  </si>
+  <si>
+    <t>Sir Neko</t>
+  </si>
+  <si>
+    <t>https://sirneko.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 9 11 5739 2240</t>
+  </si>
+  <si>
+    <t>aditivos, complementos, productos químicos, algas, arroz, legumbres, cereales, cereales para el desayuno, chocolate, endulzantes, especias, condimentos, extractos, suplementos, fruta deshidratada, frutos secos, granolas, harinas, herboristería, hongos deshidratados, leches, sal, semillas, snacks, té, tintura madre, gondola, bazar, acido citrico anhidro, agrimonia hierba deshidratada, aji chaotian en vaina deshidratada, aji molido, saponaria raiz, leche de coco en polvo sin caseína, cajun mix de especias, mix sin pasas, te matcha culinary grade, te verde en polvo, black fungus hongo entero deshidratado, bolletus hongo de pino entero deshidratado, chaga extracto polvo estandarizado, cola de pavo turkey tail extracto polvo estandarizado, cordyceps militaris extracto polvo estandarizado, girgolas hongo oyster entero deshidratado, hongo shitake en tallos deshidratados, maitake extracto polvo estandarizado, maitake hongo entero deshidratado, melena de leon en polvo micronizado, lions mane orgánico, melena de leon entero, lions mane, melena de leon extracto polvo estandarizado, té twinings limón y frambuesa, calendula flor pura, petalos de rosa, ciruela presidente, pimentón cumaná sin tacc, hibiscus en flor premium deshidratado, castañas de para, nuez de brasil, curcuma molida pura, amargon, diente de leon, cascara de naranja amarga deshidratada, hongo lions mane melena de leon deshidratado, remolacha en polvo, te negro darjeeling en hebras, celidonia, consuelda, compfrey raiz entera, muerdago, adobo condimento para pizza, aji cayena amarillo molido puro, aji cayena rojo molido puro, ajo en escamas, ajo en polvo, ajo granulado ahumado, ajo granulado blanco, albahaca en hojas, albahaca en polvo, anis estrellado entero, comino en grano, polen granulado tea, jengibre raiz entera deshidratada, coriandro, cilantro semilla entera, fenogreco en semilla, curcuma raiz entera deshidratada, polen granulado de sauce, te chai en polvo, canela h2 en rama, anis turco en semilla, canela h1 en rama entera, canela cassia en rama sticks, canela en polvo, anis turco molido puro, mix de pimientas, romero en hoja puro, jengibre en polvo puro, kummel, alcaravea semilla, condimento para arroz, nuez moscada molida, oregano, mejorana, cardamomo verde, te assam negro en hebras, te bancha verde en hebras, te blanco pai mu tan en hebras, te ceylon supreme negro en hebras, te darjeeling negro d en hebras, te earl grey en hebras, te english breakfast negro hebras, te gunpowder verde en hebras, te lapsang negro ahumado en hebras, te matcha ceremonial grade, te negro en hebras nacional, yerba de pollo, anacahuita, polen granulado multifloral china, alfalfa, arnica mexicana flor, ambay, hypericon, hiperico, hierba de san juan, alcachofa, angelica raiz, cafe verde en grano crudo molido, borraja, enebro en bayas, calamo aromatico, acoro raiz, brusca, brusquilla, benjui piedra, ajenjo, cola de quirquincho, boldo molido.</t>
+  </si>
+  <si>
+    <t>Werdener Distribuidora</t>
+  </si>
+  <si>
+    <t>https://werdenerdistribuidora.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 2508-3182</t>
+  </si>
+  <si>
+    <t>ventas@werdenerdistribuidora.com.ar</t>
+  </si>
+  <si>
+    <t>Villa Ballester</t>
+  </si>
+  <si>
+    <t>Formosa 5342</t>
+  </si>
+  <si>
+    <t>hierbas medicinales, especias, condimentos, hongos deshidratados, legumbres, cereales, harinas, materia prima para repostería, semillas</t>
+  </si>
+  <si>
     <t>Almacen Cervecero</t>
   </si>
   <si>
@@ -609,9 +960,6 @@
   </si>
   <si>
     <t>Almacen Cervecero (Sucursal)</t>
-  </si>
-  <si>
-    <t>(No especificado)</t>
   </si>
   <si>
     <t>valdivia@almacencervecero.cl</t>
@@ -1612,7 +1960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1650,6 +1998,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -1668,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1689,12 +2046,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2856,6 +3219,768 @@
         <v>187</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2888,8 +4013,29 @@
     <hyperlink r:id="rId28" ref="B29"/>
     <hyperlink r:id="rId29" ref="B30"/>
     <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B32"/>
+    <hyperlink r:id="rId32" ref="B33"/>
+    <hyperlink r:id="rId33" ref="B34"/>
+    <hyperlink r:id="rId34" ref="B35"/>
+    <hyperlink r:id="rId35" ref="B36"/>
+    <hyperlink r:id="rId36" ref="B37"/>
+    <hyperlink r:id="rId37" ref="B38"/>
+    <hyperlink r:id="rId38" ref="B39"/>
+    <hyperlink r:id="rId39" ref="B40"/>
+    <hyperlink r:id="rId40" ref="B41"/>
+    <hyperlink r:id="rId41" ref="B42"/>
+    <hyperlink r:id="rId42" ref="B43"/>
+    <hyperlink r:id="rId43" ref="B44"/>
+    <hyperlink r:id="rId44" ref="B45"/>
+    <hyperlink r:id="rId45" ref="B46"/>
+    <hyperlink r:id="rId46" ref="B47"/>
+    <hyperlink r:id="rId47" ref="B48"/>
+    <hyperlink r:id="rId48" ref="B49"/>
+    <hyperlink r:id="rId49" ref="B50"/>
+    <hyperlink r:id="rId50" ref="B51"/>
+    <hyperlink r:id="rId51" ref="B52"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -2962,231 +4108,231 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>189</v>
+        <v>305</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>314</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>204</v>
+        <v>319</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>326</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>218</v>
+        <v>333</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
@@ -3194,289 +4340,289 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>252</v>
+        <v>368</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>281</v>
+        <v>396</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>282</v>
+        <v>398</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>285</v>
+        <v>401</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>286</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>287</v>
+        <v>403</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>288</v>
+        <v>404</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>292</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20">
@@ -3613,263 +4759,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>308</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>301</v>
+        <v>425</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>314</v>
+        <v>430</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>308</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>316</v>
+        <v>431</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>320</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>322</v>
+        <v>437</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>325</v>
+        <v>441</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>322</v>
+        <v>443</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>329</v>
+        <v>445</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>334</v>
+        <v>450</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>336</v>
+        <v>452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>339</v>
+        <v>455</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>341</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>306</v>
+        <v>422</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>347</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>351</v>
+        <v>467</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>352</v>
+        <v>468</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>353</v>
+        <v>469</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>354</v>
+        <v>470</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>355</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11">
@@ -3934,7 +5080,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4087,410 +5233,410 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>357</v>
+        <v>472</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>473</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>358</v>
+        <v>474</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>359</v>
+        <v>475</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>363</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>365</v>
+        <v>480</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>481</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>366</v>
+        <v>482</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>367</v>
+        <v>483</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>370</v>
+        <v>486</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>371</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>373</v>
+        <v>488</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>489</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>375</v>
+        <v>491</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>377</v>
+        <v>493</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>378</v>
+        <v>494</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>379</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>381</v>
+        <v>496</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>382</v>
+        <v>498</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>383</v>
+        <v>499</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>385</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>386</v>
+        <v>340</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>388</v>
+        <v>504</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>389</v>
+        <v>505</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>390</v>
+        <v>506</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>391</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>392</v>
+        <v>508</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>393</v>
+        <v>509</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>394</v>
+        <v>510</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>396</v>
+        <v>512</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>397</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>398</v>
+        <v>514</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>399</v>
+        <v>515</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>401</v>
+        <v>517</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>406</v>
+        <v>522</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>407</v>
+        <v>523</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>408</v>
+        <v>524</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>409</v>
+        <v>525</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>411</v>
+        <v>527</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>412</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>413</v>
+        <v>529</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>418</v>
+        <v>534</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>419</v>
+        <v>535</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>421</v>
+        <v>537</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>422</v>
+        <v>538</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>422</v>
+        <v>538</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>423</v>
+        <v>539</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>425</v>
+        <v>541</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>430</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>433</v>
+        <v>549</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>434</v>
+        <v>550</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>435</v>
+        <v>551</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>437</v>
+        <v>553</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>438</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>439</v>
+        <v>555</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>440</v>
+        <v>556</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>441</v>
+        <v>557</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>443</v>
+        <v>559</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>444</v>
+        <v>560</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>445</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>446</v>
+        <v>562</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>447</v>
+        <v>563</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>451</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4648,364 +5794,364 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>453</v>
+        <v>568</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>569</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>455</v>
+        <v>571</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>458</v>
+        <v>574</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>459</v>
+        <v>575</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>460</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>462</v>
+        <v>577</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>463</v>
+        <v>579</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>467</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>469</v>
+        <v>584</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>585</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>470</v>
+        <v>586</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>471</v>
+        <v>587</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>472</v>
+        <v>588</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>475</v>
+        <v>590</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>477</v>
+        <v>592</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>593</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>479</v>
+        <v>595</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>480</v>
+        <v>596</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>480</v>
+        <v>596</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>481</v>
+        <v>597</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>482</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>484</v>
+        <v>599</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>600</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>486</v>
+        <v>602</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>487</v>
+        <v>603</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>488</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>489</v>
+        <v>605</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>490</v>
+        <v>606</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>491</v>
+        <v>607</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>492</v>
+        <v>608</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>493</v>
+        <v>609</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>493</v>
+        <v>609</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>494</v>
+        <v>610</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>502</v>
+        <v>618</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>503</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>504</v>
+        <v>620</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>505</v>
+        <v>621</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>507</v>
+        <v>623</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>508</v>
+        <v>624</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>509</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>510</v>
+        <v>626</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>511</v>
+        <v>627</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>512</v>
+        <v>628</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>513</v>
+        <v>629</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>514</v>
+        <v>630</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>515</v>
+        <v>631</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>516</v>
+        <v>632</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>517</v>
+        <v>633</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>518</v>
+        <v>634</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>519</v>
+        <v>635</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>520</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>521</v>
+        <v>637</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>522</v>
+        <v>638</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>523</v>
+        <v>639</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>523</v>
+        <v>639</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>524</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>525</v>
+        <v>641</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15">
@@ -5030,7 +6176,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>

--- a/Proveedores.xlsx
+++ b/Proveedores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="706">
   <si>
     <t>nombre</t>
   </si>
@@ -932,6 +932,126 @@
     <t>hierbas medicinales, especias, condimentos, hongos deshidratados, legumbres, cereales, harinas, materia prima para repostería, semillas</t>
   </si>
   <si>
+    <t>Agrovin</t>
+  </si>
+  <si>
+    <t>https://agrovin.com/</t>
+  </si>
+  <si>
+    <t>+54 261 427-2193</t>
+  </si>
+  <si>
+    <t>info@agrovin.com.ar</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Carril Rodríguez Peña 2231</t>
+  </si>
+  <si>
+    <t>Argenmieles (Miel a granel)</t>
+  </si>
+  <si>
+    <t>http://www.argenmieles.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 11 4328-1916</t>
+  </si>
+  <si>
+    <t>info@argenmieles.com.ar</t>
+  </si>
+  <si>
+    <t>Posadas 2387</t>
+  </si>
+  <si>
+    <t>Biovin</t>
+  </si>
+  <si>
+    <t>https://biovin.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 261 496-3020</t>
+  </si>
+  <si>
+    <t>contacto@biovin.com.ar</t>
+  </si>
+  <si>
+    <t>San Martín 3853, Mayor Drummond</t>
+  </si>
+  <si>
+    <t>Chirca</t>
+  </si>
+  <si>
+    <t>https://www.chirca.com/</t>
+  </si>
+  <si>
+    <t>+54 264 424-0015</t>
+  </si>
+  <si>
+    <t>info@chirca.com</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Av. Gral. Roca 2525 (Sur)</t>
+  </si>
+  <si>
+    <t>Frusso</t>
+  </si>
+  <si>
+    <t>https://www.frusso.com/</t>
+  </si>
+  <si>
+    <t>+54 3564 44-5971</t>
+  </si>
+  <si>
+    <t>ventas@frusso.com</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Marco Nicolini 2280</t>
+  </si>
+  <si>
+    <t>La Ernestina</t>
+  </si>
+  <si>
+    <t>https://laernestinasa.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 261 334-0595</t>
+  </si>
+  <si>
+    <t>info@laernestinasa.com.ar</t>
+  </si>
+  <si>
+    <t>Roque Sáenz Peña 751</t>
+  </si>
+  <si>
+    <t>Laffort</t>
+  </si>
+  <si>
+    <t>https://laffort.com/es/</t>
+  </si>
+  <si>
+    <t>Velo Argentina</t>
+  </si>
+  <si>
+    <t>https://velo.com.ar/</t>
+  </si>
+  <si>
+    <t>+54 261 447-3015</t>
+  </si>
+  <si>
+    <t>info@velo.com.ar</t>
+  </si>
+  <si>
+    <t>Calle N°7 y Santa Rita, Parque Industrial</t>
+  </si>
+  <si>
     <t>Almacen Cervecero</t>
   </si>
   <si>
@@ -1265,6 +1385,24 @@
     <t>Estanques, Reactores, Fermentadores, Salteadoras, Mezcladores, Mezclador tipo pantalon, Mezclador biconico, Mezclador horizontal, Mezclador pedestal, Mezclador de cinta, Silos, Estructuras metalicas, Spool, Transfer, Plataformas, Equipos de desarrollo, Tornillos sin fin, Bandejas, Skid, Cintas transportadoras, Productos a la medida, Plantas, Piping acero inox, Piping acero al carbono, Piping duplex, Piping titanio.</t>
   </si>
   <si>
+    <t>Tostaduria talca</t>
+  </si>
+  <si>
+    <t>https://tostaduriatalca.cl/</t>
+  </si>
+  <si>
+    <t>almendras naturales, almendras tostadas saladas, almendras tostadas sin sal, almendras confitadas, castañas de cajú saladas, castañas de cajú tostadas, maní confitado, maní confitado con sésamo, maní salado, maní salado al merquén, maní tostado con piel, maní tostado sin sal, nueces mariposa, pistachos con cáscara tostados salados, pistachos con cáscara tostados sin sal, ciruelas con carozo, ciruelas sin carozo, cranberries deshidratados, damascos turcos, duraznos huesillos descarozados, huesillos extra, pasas morenas flame, pasas rubias, chía en semillas, linaza, maravilla (girasol) con cáscara, maravilla (girasol) sin cáscara, pepas de zapallo sin cáscara, quinoa, avena machacada/laminada, harina de almendras, harina de arroz, harina de linaza, harina de maní, harina integral de trigo, harina tostada de trigo, lentejas, porotos negros, porotos rojos, ají de color (paprika), aliño completo, canela en ramas, coco rallado, comino molido, fruta confitada, granola con tagatosa, merquén, orégano entero, plátanos chips dulces, trigo mote</t>
+  </si>
+  <si>
+    <t>piwen</t>
+  </si>
+  <si>
+    <t>https://www.piwen.cl/</t>
+  </si>
+  <si>
+    <t>almendra natural, almendra laminada sin piel, nuez mariposa, castañas de cajú sin sal, pistacho tostado con sal, pistacho tostado sin sal, maní tostado sin sal, avellana europea, frutos secos cubiertos con chocolate, maní con chocolate (leche, bitter), avellanas con chocolate (leche, bitter), cranberries con chocolate (leche, bitter), frutas deshidratadas (damasco turco, coco, banana, piña, mango, cranberries, pasas), semillas (chía, linaza, sésamo, zapallo/calabaza, maravilla/girasol), mix gourmet de frutos secos, mix Piwén (almendras, cranberries, semillas de zapallo, damasco en cubos), mix de semillas, cereales y legumbres (avena, maíz frito, quinoa, quinoa pop, habas fritas, garbanzos fritos), muesli (Berry Gud, Quinoa Locura, Fiesta Frutal), granola con miel, quinoa pop cereal, mantequilla de maní 100% natural, mantequilla de almendra, syrup de dátil</t>
+  </si>
+  <si>
     <t>Distrines (Sede Principal)</t>
   </si>
   <si>
@@ -1433,6 +1571,24 @@
     <t>Envases de vidrio, envases para alimentos, envases para farmacéuticos, envases para licores, envases para cosméticos, envases decorativos, envases de plástico, envases para aseo, ingredientes y aditivos, cristalería, cristalería para bar, cristalería para hogar, vasos, copas, tapas, complementos para envases, frascos de vidrio, botellas de vidrio, envases para salsas, envases para conservas, envases para mermeladas, envases para compotas, envases para miel, goteros, envases para jarabes, viales, ampollas, envases para cremas, envases para perfumes, envases para esmaltes, tarros de vidrio, botellas para vino, botellas para pisco, botellas para ron, botellas para aguardiente, envases roll-on, potes, tarros cosméticos, envases PET, envases de polietileno, envases de polipropileno, envases para shampoo, envases para jabón líquido, envases para cremas corporales, envases para detergentes, envases para suavizantes, envases para ambientadores, dosificadores, válvulas, tapas plásticas, tapas metálicas, tapas de seguridad, subtapas, tapones, goteros plásticos, excipientes, agentes de relleno, emulsificantes, estabilizantes, conservantes, extractos naturales, edulcorantes, colorantes, saborizantes, acidulantes, antioxidantes, vitaminas, minerales, copas de vino, copas de champagne, copas de cóctel, vasos de agua, vasos de jugo, vasos de whisky, vasos de cerveza, jarras, decantadores, desarrollo de envases, desarrollo de tapas, etiquetado IML, in mold labeling, envases personalizados, envases a medida, packaging, soluciones de empaque, envases para emprendedores, envases para la industria alimenticia, envases para la industria cosmética, envases para la industria farmacéutica, envases para la industria de aseo, envases ecológicos, envases reciclables, envases sostenibles, Distribuidora Cordoba, Discordoba</t>
   </si>
   <si>
+    <t>Mercado Vital</t>
+  </si>
+  <si>
+    <t>https://mercadovital.co/</t>
+  </si>
+  <si>
+    <t>frutos secos, almendras, avellana con piel, nuez de macadamia, marañón (anacardo), maní, semillas, quinua, chía, ajonjolí (sésamo), girasol, frutas deshidratadas, arándanos deshidratados, chocolate, productos a granel, mantequillas vegetales (p. ej. mantequilla de maní/almendra), harinas saludables, snacks saludables, galletas saludables, superfoods, bebidas vegetales, suplementos, productos sin gluten</t>
+  </si>
+  <si>
+    <t>el caunzal</t>
+  </si>
+  <si>
+    <t>https://elcaunzal.co/</t>
+  </si>
+  <si>
+    <t>frutos secos, especias, harinas, semillas, granos, frutas deshidratadas, canela molida, canela en astilla, cardamomo cáscara, cardamomo oro, ajo molido, albahaca en escamas, alcaparras en vinagre, aceitunas (variedades), aceite de oliva, aceite de aguacate, aceite de ajonjolí (tostado y gourmet), ajonjolí negro, cebada en grano, maíz pira, maíz salado, maíz tierno en lata, fríjol cargamanto blanco, fríjol cargamanto rojo, amaranto en grano, almendra natural, almendra molida, pistacho con cáscara, macadamia entera, macadamia partida, albaricoque deshidratado, mango deshidratado, mixtura de frutos secos, sal rosada del Himalaya, ablandador de carnes, psyllium</t>
+  </si>
+  <si>
     <t>Cocinista</t>
   </si>
   <si>
@@ -1719,6 +1875,24 @@
   </si>
   <si>
     <t>Levadura, levadura de cerveza, levadura seca, levadura ale, levadura lager, levadura de trigo, levadura belga, levadura kveik, levadura para IPA, levadura para NEIPA, levadura para Saison, levadura para cerveza sour, bacterias lácticas, levadura para acondicionamiento en botella, levadura de baja fermentación, levadura de alta fermentación, levadura híbrida, LalBrew Abbaye, LalBrew Belle Saison, LalBrew BRY-97, LalBrew CBC-1, LalBrew Diamond, LalBrew Farmhouse, LalBrew Munich Classic, LalBrew New England, LalBrew Nottingham, LalBrew NovaLager, LalBrew Pomona, LalBrew Verdant IPA, LalBrew Windsor, LalBrew Köln, Voss Kveik, WildBrew Philly Sour, WildBrew Sour Pitch, nutrientes para levadura, protectores de levadura, enzimas, clarificantes, estabilizadores de cerveza, alfa-amilasa, proteasa, glucoamilasa, beta-glucanasa, quitosano, isinglass, sílica gel, AB Vickers, Servomyces, Aromazyme, Chillzyme, Protozyme, Alphafloc, Britesorb BK, Clarizyme.</t>
+  </si>
+  <si>
+    <t>Fruto Seco</t>
+  </si>
+  <si>
+    <t>http://frutoseco.com/</t>
+  </si>
+  <si>
+    <t>frutos secos, almendras, almendra largueta, almendra repelada, anacardos, avellanas, cacahuetes, pistachos, nueces, nueces pecanas, nueces de macadamia, nueces de Brasil, piñones, castañas, maíz frito, pipas de girasol, semillas de calabaza, garrapiñados, frutos secos tostados, frutos secos crudos, frutas deshidratadas, uvas pasas, pasas sultanas, ciruelas pasas sin hueso, dátiles, higos secos, frutos rojos del bosque, arándanos rojos, fresas deshidratadas, cerezas deshidratadas, mango deshidratado, piña deshidratada, papaya deshidratada, kiwi deshidratado, manzana deshidratada, pera deshidratada, coco rallado, banana chips, tomate deshidratado, aloe vera deshidratado, orejones de albaricoque, bayas de goji, sin azúcar añadido, barritas energéticas, herboristería, tés (negro, oolong), manzanilla, regaliz, lavanda, cola de caballo, boldo, diente de león, escaramujo, angélica raíz, nuez de cola, guaraná, alcachofera, alcaravea, arándano hojas, fenogreco, roble corteza, rabogato, stevia natural, eritritol, xilitol, infusiones digestivas, infusiones depurativas, infusiones diuréticas, sistema respiratorio, sistema nervioso, especias y condimentos, canela, anís estrellado, cardamomo, comino, cúrcuma, jengibre, laurel, clavo, pimienta, pimentón, curry, eneldo, hinojo, cilantro, hierbabuena, tomillo, perejil, sal marina, sal del Himalaya, ajo, ajo negro, cebolla, colorante alimentario, espirulina, coctelería, caramelos y aperitivos, caramelos sin azúcar, golosinas, chocolate, chocolate sprinkles, fideos de colores, crema de cacahuete, crema de avellana y cacao, crema de avellana y chocolate blanco, semillas y legumbres, garbanzos, lentejas, alubias, alubia carilla, habas fritas, quinoa (blanca, roja, negra, hinchada), bulgur, cuscús, amaranto, mijo, arroz, avena, trigo, espelta, cebada, cacao, sésamo, lino, chía, cáñamo pelado, cañamones, amapola, harinas (altramuz, espelta), cereales</t>
+  </si>
+  <si>
+    <t>Secofrut</t>
+  </si>
+  <si>
+    <t>https://www.secofrut.com/</t>
+  </si>
+  <si>
+    <t>frutos secos a granel, almendras, nueces, pistachos, anacardos, avellanas, cacahuetes, piñones, pipas de girasol, mixes de frutos secos, frutos secos sin sal, harinas de frutos secos (almendra, avellana, pistacho, nuez, anacardo, cacahuete), cremas de frutos secos (almendra, anacardo, avellana, cacahuete, pistacho), snacks y aperitivos, aperitivos fríos, snacks para freír, altramuces, garbanzo snack, quicos de maíz, habas fritas, galletas crujientes, fruta seca y deshidratada, fruta sin azúcar añadido, fruta confitada, fruta con chocolate, mezclas de frutas, chufa de Valencia, dátiles, pasas, ciruelas deshidratadas, arándanos deshidratados, jengibre deshidratado, coco deshidratado, piña deshidratada, kiwi deshidratado, pomelo deshidratado, flores y bayas deshidratadas, copos, mueslis, semillas, cereales, quinoa, arroz, maíz para palomitas, soja, sémola de verduras, legumbres (alubias, frijoles, garbanzos, lentejas), miel artesanal (azahar, bosque, castaño, eucalipto, lavanda, montaña, romero, tomillo), polen de abeja, infusiones y tés, especias y condimentos, botánicos, aceites artesanales (AOVE y variedades), chocolates, caramelos, detalles y regalos, packs ahorro, productos profesionales, monodosis y cremas Secofit, productos a granel, envases de papel, regalos personalizados.</t>
   </si>
   <si>
     <t>República Cervecera</t>
@@ -1954,6 +2128,24 @@
   </si>
   <si>
     <t>Provedora de Lúpulos e Insumos Cerveceros (PLIC)</t>
+  </si>
+  <si>
+    <t>Promanuez</t>
+  </si>
+  <si>
+    <t>https://promanuez.com/</t>
+  </si>
+  <si>
+    <t>Nuez natural, nuez garapiñada, nuez corazón, nuez de la India (cashew), pistache, almendra en palitos, cacahuate garapiñado, cacahuate garapiñado con ajonjolí, cacahuate enchilado, pasas con chocolate, arándano con chile, arándano con chocolate blanco y matcha, dátil con nuez (sin azúcar), semilla tostada con sal, semilla de chía, ajonjolí, semilla de calabaza, semilla de girasol, linaza molida, gomitas con chile, tiritas arcoíris con chile, gomas aros con chile, pik-ositos, gomas frutas, gomas ositos, gomas corazón con chile, gomitas oruga con chile, gomas lombrices, chips de jícama con chile, chips de jícama sal y limón, chips de camote jalapeño, chips de betabel con chile, maicito sal y chile, platanitos con chile, mix con M&amp;M’s, mix healthy, mix nueces, mix imperial, brocheta enchilada, crema de cacahuate sin azúcar, crema de cacahuate con azúcar, crema de almendra sin azúcar, crema de almendra con stevia, crema de avellana, miel de abeja, fruta deshidratada, barras, regalos, gift box, ruletas, personaliza.</t>
+  </si>
+  <si>
+    <t>La Mejicana</t>
+  </si>
+  <si>
+    <t>https://lamejicana.mx/</t>
+  </si>
+  <si>
+    <t>almendras, nuez pecana, pistache, cacahuate, avellanas, mezcla de frutos secos, arándanos deshidratados, pasas de uva, ciruela pasa, dátiles, mango deshidratado, coco rallado, piña deshidratada, chía, linaza, ajonjolí, semilla de girasol, pepita de calabaza, quinoa, amaranto, germen de trigo, psyllium, salvado, arroz, arroz integral, arroz inflado, trigo inflado, maíz palomero, maíz pozolero blanco, maíz pozolero morado, avena, granola, hojuela de maíz, cebada perla, frijol pinto, frijol peruano, frijol negro, frijol alubia, garbanzo, lenteja, haba, fenogreco, semilla de cilantro, semilla de mostaza, pingüica, canela, clavo, pimienta negra, comino, cúrcuma, jengibre, orégano, laurel, paprika, anís, chiles secos ancho, chiles guajillo, chile pasilla, chile de árbol, morita, chipotle, crema de cacahuate, crema de almendra, crema de cacahuate con chocolate, miel de abeja multiflora, miel de mezquite, miel de aguacate, miel de mango, miel de agave, miel de maguey, café en grano, café molido, pasta de cacao, nibs de cacao, cacao tostado molido, cocoa en polvo, chocolate en moneda (amargo, semi-amargo, blanco), chispas de chocolate, caramelo sabor café, cerezas marrasquino, grajeas, bicarbonato, levadura, vainilla, ate de membrillo, stevia líquida, monk fruit, gomitas enchiladas (mango, sandía, picafresa), botanas enchiladas, alegrías de amaranto, paquetes/bundles, productos keto.</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2217,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2053,6 +2245,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3981,6 +4176,346 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -4034,8 +4569,16 @@
     <hyperlink r:id="rId49" ref="B50"/>
     <hyperlink r:id="rId50" ref="B51"/>
     <hyperlink r:id="rId51" ref="B52"/>
+    <hyperlink r:id="rId52" ref="B53"/>
+    <hyperlink r:id="rId53" ref="B54"/>
+    <hyperlink r:id="rId54" ref="B55"/>
+    <hyperlink r:id="rId55" ref="B56"/>
+    <hyperlink r:id="rId56" ref="B57"/>
+    <hyperlink r:id="rId57" ref="B58"/>
+    <hyperlink r:id="rId58" ref="B59"/>
+    <hyperlink r:id="rId59" ref="B60"/>
   </hyperlinks>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -4108,231 +4651,231 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
@@ -4340,310 +4883,324 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>457</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
+      <c r="I20" s="5" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
+      <c r="I21" s="5" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3"/>
@@ -4685,8 +5242,10 @@
     <hyperlink r:id="rId16" ref="B17"/>
     <hyperlink r:id="rId17" ref="B18"/>
     <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4759,284 +5318,298 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>519</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+      <c r="I11" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>522</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
@@ -5080,7 +5653,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5159,8 +5732,10 @@
     <hyperlink r:id="rId7" ref="B8"/>
     <hyperlink r:id="rId8" ref="B9"/>
     <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -5233,426 +5808,452 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>621</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>624</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
@@ -5720,8 +6321,10 @@
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
     <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -5794,389 +6397,403 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>591</v>
+        <v>648</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>598</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>605</v>
+        <v>663</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>636</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>701</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
+      <c r="I15" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>704</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
+      <c r="I16" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6258,7 +6875,9 @@
     <hyperlink r:id="rId10" ref="B10"/>
     <hyperlink r:id="rId11" ref="B11"/>
     <hyperlink r:id="rId12" ref="B12"/>
+    <hyperlink r:id="rId13" ref="B15"/>
+    <hyperlink r:id="rId14" ref="B16"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>